--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02433F8D-A7EB-48D5-A176-53DDFF0FB95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D0EF9-09E2-4FAF-83B2-2F342C789DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="43">
   <si>
     <t>LAYER</t>
   </si>
   <si>
-    <t>FILTER/UNIT</t>
-  </si>
-  <si>
     <t>KERNEL</t>
   </si>
   <si>
@@ -159,6 +156,18 @@
   </si>
   <si>
     <t>Model 1.11</t>
+  </si>
+  <si>
+    <t>Model 1.12</t>
+  </si>
+  <si>
+    <t>FILTERS/UNITS</t>
+  </si>
+  <si>
+    <t>Model 1.13</t>
+  </si>
+  <si>
+    <t>(128, 128, 1)</t>
   </si>
 </sst>
 </file>
@@ -600,11 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M93" sqref="M93"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +621,7 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="10" style="7" customWidth="1"/>
     <col min="6" max="7" width="9.44140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" customWidth="1"/>
@@ -623,48 +632,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>32</v>
@@ -672,19 +681,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>32</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -692,7 +701,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -700,7 +709,7 @@
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
@@ -727,10 +736,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -738,19 +747,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>0.1</v>
@@ -758,19 +767,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>32</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0.1</v>
@@ -778,7 +787,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>32</v>
@@ -789,7 +798,7 @@
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -816,10 +825,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>32</v>
@@ -827,19 +836,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>0.1</v>
@@ -847,19 +856,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>0.1</v>
@@ -867,19 +876,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>64</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0.2</v>
@@ -887,7 +896,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>64</v>
@@ -898,7 +907,7 @@
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
@@ -925,10 +934,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -936,19 +945,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>32</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>0.3</v>
@@ -956,19 +965,19 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>32</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0.3</v>
@@ -976,19 +985,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>64</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>0.3</v>
@@ -996,7 +1005,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>64</v>
@@ -1007,7 +1016,7 @@
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
@@ -1034,10 +1043,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>32</v>
@@ -1045,19 +1054,19 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>32</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>0.3</v>
@@ -1065,19 +1074,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>64</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>0.3</v>
@@ -1085,19 +1094,19 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>128</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0.3</v>
@@ -1105,7 +1114,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>128</v>
@@ -1116,7 +1125,7 @@
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="8"/>
@@ -1143,10 +1152,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -1154,19 +1163,19 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>32</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>0.3</v>
@@ -1174,19 +1183,19 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>64</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>0.3</v>
@@ -1194,19 +1203,19 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38">
         <v>128</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>0.3</v>
@@ -1214,7 +1223,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>128</v>
@@ -1225,7 +1234,7 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="8"/>
@@ -1252,10 +1261,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>32</v>
@@ -1263,19 +1272,19 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <v>32</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0.2</v>
@@ -1283,19 +1292,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>64</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>0.3</v>
@@ -1303,19 +1312,19 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45">
         <v>128</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>0.3</v>
@@ -1323,19 +1332,19 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46">
         <v>128</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>0.4</v>
@@ -1343,7 +1352,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>128</v>
@@ -1354,7 +1363,7 @@
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
@@ -1381,10 +1390,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>32</v>
@@ -1392,19 +1401,19 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <v>32</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>0.2</v>
@@ -1412,19 +1421,19 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>64</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>0.3</v>
@@ -1432,19 +1441,19 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53">
         <v>128</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>0.3</v>
@@ -1452,19 +1461,19 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54">
         <v>128</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>0.4</v>
@@ -1472,7 +1481,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55">
         <v>128</v>
@@ -1483,7 +1492,7 @@
     </row>
     <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
@@ -1510,10 +1519,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>32</v>
@@ -1521,19 +1530,19 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>32</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>0.2</v>
@@ -1541,19 +1550,19 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60">
         <v>64</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>0.3</v>
@@ -1561,19 +1570,19 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61">
         <v>128</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>0.3</v>
@@ -1581,19 +1590,19 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62">
         <v>256</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>0.4</v>
@@ -1601,7 +1610,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63">
         <v>128</v>
@@ -1612,7 +1621,7 @@
     </row>
     <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
@@ -1639,10 +1648,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66">
         <v>32</v>
@@ -1650,19 +1659,19 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>32</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>0.2</v>
@@ -1670,19 +1679,19 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68">
         <v>64</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>0.3</v>
@@ -1690,19 +1699,19 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69">
         <v>64</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>0.4</v>
@@ -1710,19 +1719,19 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70">
         <v>128</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>0.4</v>
@@ -1730,7 +1739,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>128</v>
@@ -1741,7 +1750,7 @@
     </row>
     <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
@@ -1768,10 +1777,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>32</v>
@@ -1779,19 +1788,19 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75">
         <v>64</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>0.2</v>
@@ -1799,19 +1808,19 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76">
         <v>64</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0.3</v>
@@ -1819,19 +1828,19 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77">
         <v>64</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>0.4</v>
@@ -1839,7 +1848,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78">
         <v>128</v>
@@ -1850,7 +1859,7 @@
     </row>
     <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="8"/>
@@ -1877,10 +1886,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>32</v>
@@ -1888,19 +1897,19 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>64</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>0.2</v>
@@ -1908,19 +1917,19 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83">
         <v>64</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>0.3</v>
@@ -1928,19 +1937,19 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D84">
         <v>64</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>0.4</v>
@@ -1948,7 +1957,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85">
         <v>512</v>
@@ -1959,7 +1968,7 @@
     </row>
     <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
@@ -1986,10 +1995,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88">
         <v>64</v>
@@ -1997,19 +2006,19 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D89">
         <v>64</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0.2</v>
@@ -2017,19 +2026,19 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90">
         <v>64</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0.3</v>
@@ -2037,19 +2046,19 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91">
         <v>64</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>0.5</v>
@@ -2057,7 +2066,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92">
         <v>128</v>
@@ -2068,7 +2077,7 @@
     </row>
     <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
@@ -2090,6 +2099,224 @@
         <v>0.87670000000000003</v>
       </c>
       <c r="M93" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96">
+        <v>64</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97">
+        <v>64</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>64</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>128</v>
+      </c>
+      <c r="H99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8">
+        <v>0.2225</v>
+      </c>
+      <c r="J100" s="8">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="K100" s="8">
+        <v>0.30570000000000003</v>
+      </c>
+      <c r="L100" s="8">
+        <v>0.86990000000000001</v>
+      </c>
+      <c r="M100" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>16</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104">
+        <v>32</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105">
+        <v>64</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H105">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106">
+        <v>256</v>
+      </c>
+      <c r="H106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="J107" s="8">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="K107" s="8">
+        <v>0.3538</v>
+      </c>
+      <c r="L107" s="8">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="M107" s="8">
         <v>15</v>
       </c>
     </row>

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D0EF9-09E2-4FAF-83B2-2F342C789DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ED86A6-EF3D-40E7-866E-D14292D8449E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="DIMENSION">Sheet1!$B:$B</definedName>
     <definedName name="LAYER">Sheet1!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="44">
   <si>
     <t>LAYER</t>
   </si>
@@ -168,6 +169,9 @@
   </si>
   <si>
     <t>(128, 128, 1)</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -609,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M107" sqref="M107"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1884,7 +1888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>37</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -1935,7 +1939,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>15</v>
       </c>
@@ -1992,8 +1996,11 @@
       <c r="M86" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>38</v>
       </c>
@@ -2004,7 +2011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2031,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -2044,7 +2051,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2075,7 +2082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>15</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>39</v>
       </c>
@@ -2113,7 +2120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB33746-DAFA-4E26-81F9-3992488CA3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8535A9-7375-46F0-A2F0-BDE9C4E43E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="56">
   <si>
     <t>LAYER</t>
   </si>
@@ -181,6 +181,33 @@
   </si>
   <si>
     <t>Model 1.14</t>
+  </si>
+  <si>
+    <t>Model 1.15</t>
+  </si>
+  <si>
+    <t>(64, 64, 1)</t>
+  </si>
+  <si>
+    <t>LEARN RATE</t>
+  </si>
+  <si>
+    <t>Model 2.0</t>
+  </si>
+  <si>
+    <t>Model 2.1</t>
+  </si>
+  <si>
+    <t>Model 2.2</t>
+  </si>
+  <si>
+    <t>Overfitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEL 2 </t>
+  </si>
+  <si>
+    <t>AUGMENT</t>
   </si>
 </sst>
 </file>
@@ -218,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -272,11 +299,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,23 +336,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -634,11 +664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,9 +680,10 @@
     <col min="5" max="5" width="10" style="7" customWidth="1"/>
     <col min="6" max="7" width="9.44140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,22 +709,31 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -703,8 +743,11 @@
       <c r="C3">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -724,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -732,7 +775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -743,38 +786,34 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
         <v>0.29199999999999998</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>0.89749999999999996</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>0.45329999999999998</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M6" s="8">
         <v>0.79900000000000004</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <f>L6-J6</f>
+        <v>0.1613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <f t="shared" ref="P7:P70" si="0">L7-J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -784,8 +823,15 @@
       <c r="C8">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>1E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -804,8 +850,12 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -816,23 +866,34 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
         <v>0.15859999999999999</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>0.95689999999999997</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>0.50229999999999997</v>
       </c>
-      <c r="L10" s="8">
+      <c r="M10" s="8">
         <v>0.79730000000000001</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.34370000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -842,8 +903,15 @@
       <c r="C12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>1E-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -862,8 +930,12 @@
       <c r="H13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -882,8 +954,12 @@
       <c r="H14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -893,8 +969,12 @@
       <c r="H15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -905,23 +985,34 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8">
         <v>0.1769</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>0.93030000000000002</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>0.4073</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M16" s="8">
         <v>0.84289999999999998</v>
       </c>
-      <c r="M16" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="8">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0.23039999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -931,8 +1022,15 @@
       <c r="C18">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>1E-3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -951,8 +1049,12 @@
       <c r="H19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -971,8 +1073,12 @@
       <c r="H20">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -991,8 +1097,12 @@
       <c r="H21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1002,8 +1112,12 @@
       <c r="H22">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1014,23 +1128,34 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
         <v>0.112</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>0.95479999999999998</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>0.31590000000000001</v>
       </c>
-      <c r="L23" s="8">
+      <c r="M23" s="8">
         <v>0.88770000000000004</v>
       </c>
-      <c r="M23" s="8">
+      <c r="N23" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>0.20390000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1040,8 +1165,15 @@
       <c r="C25">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>1E-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1060,8 +1192,12 @@
       <c r="H26">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1080,8 +1216,12 @@
       <c r="H27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1100,8 +1240,12 @@
       <c r="H28">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1255,12 @@
       <c r="H29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1123,23 +1271,34 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="8">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8">
         <v>0.20810000000000001</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>0.91269999999999996</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>0.30520000000000003</v>
       </c>
-      <c r="L30" s="8">
+      <c r="M30" s="8">
         <v>0.879</v>
       </c>
-      <c r="M30" s="8">
+      <c r="N30" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>9.710000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <f>L31-J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1149,8 +1308,15 @@
       <c r="C32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>1E-3</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1169,8 +1335,12 @@
       <c r="H33">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1189,8 +1359,12 @@
       <c r="H34">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1209,8 +1383,12 @@
       <c r="H35">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1220,8 +1398,12 @@
       <c r="H36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
@@ -1232,23 +1414,34 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8">
+      <c r="I37" s="8"/>
+      <c r="J37" s="8">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="J37" s="8">
+      <c r="K37" s="8">
         <v>0.96340000000000003</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>0.28820000000000001</v>
       </c>
-      <c r="L37" s="8">
+      <c r="M37" s="8">
         <v>0.89270000000000005</v>
       </c>
-      <c r="M37" s="8">
+      <c r="N37" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>0.19059999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -1258,8 +1451,15 @@
       <c r="C39">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>1E-3</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1278,8 +1478,12 @@
       <c r="H40">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1298,8 +1502,12 @@
       <c r="H41">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1318,8 +1526,12 @@
       <c r="H42">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1329,8 +1541,12 @@
       <c r="H43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>15</v>
       </c>
@@ -1341,23 +1557,34 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="8">
+      <c r="I44" s="8"/>
+      <c r="J44" s="8">
         <v>0.16639999999999999</v>
       </c>
-      <c r="J44" s="8">
+      <c r="K44" s="8">
         <v>0.93489999999999995</v>
       </c>
-      <c r="K44" s="8">
+      <c r="L44" s="8">
         <v>0.27960000000000002</v>
       </c>
-      <c r="L44" s="8">
+      <c r="M44" s="8">
         <v>0.89270000000000005</v>
       </c>
-      <c r="M44" s="8">
+      <c r="N44" s="8">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>0.11320000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -1367,8 +1594,15 @@
       <c r="C46">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>1E-3</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1387,8 +1621,12 @@
       <c r="H47">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1407,8 +1645,12 @@
       <c r="H48">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1427,8 +1669,12 @@
       <c r="H49">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -1447,8 +1693,12 @@
       <c r="H50">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1458,8 +1708,12 @@
       <c r="H51">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>15</v>
       </c>
@@ -1470,23 +1724,34 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="8">
+      <c r="I52" s="8"/>
+      <c r="J52" s="8">
         <v>0.1348</v>
       </c>
-      <c r="J52" s="8">
+      <c r="K52" s="8">
         <v>0.94699999999999995</v>
       </c>
-      <c r="K52" s="8">
+      <c r="L52" s="8">
         <v>0.45200000000000001</v>
       </c>
-      <c r="L52" s="8">
+      <c r="M52" s="8">
         <v>0.84289999999999998</v>
       </c>
-      <c r="M52" s="8">
+      <c r="N52" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>0.31720000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -1496,8 +1761,15 @@
       <c r="C54">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>1E-3</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1516,8 +1788,12 @@
       <c r="H55">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1536,8 +1812,12 @@
       <c r="H56">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -1556,8 +1836,12 @@
       <c r="H57">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -1576,8 +1860,12 @@
       <c r="H58">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1587,8 +1875,12 @@
       <c r="H59">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>15</v>
       </c>
@@ -1599,23 +1891,34 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="8">
+      <c r="I60" s="8"/>
+      <c r="J60" s="8">
         <v>0.17879999999999999</v>
       </c>
-      <c r="J60" s="8">
+      <c r="K60" s="8">
         <v>0.92479999999999996</v>
       </c>
-      <c r="K60" s="8">
+      <c r="L60" s="8">
         <v>0.37930000000000003</v>
       </c>
-      <c r="L60" s="8">
+      <c r="M60" s="8">
         <v>0.85299999999999998</v>
       </c>
-      <c r="M60" s="8">
+      <c r="N60" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>0.20050000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -1625,8 +1928,15 @@
       <c r="C62">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>1E-3</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -1645,8 +1955,12 @@
       <c r="H63">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -1665,8 +1979,12 @@
       <c r="H64">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1685,8 +2003,12 @@
       <c r="H65">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -1705,8 +2027,12 @@
       <c r="H66">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -1716,8 +2042,12 @@
       <c r="H67">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>15</v>
       </c>
@@ -1728,23 +2058,34 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="8">
+      <c r="I68" s="8"/>
+      <c r="J68" s="8">
         <v>0.1018</v>
       </c>
-      <c r="J68" s="8">
+      <c r="K68" s="8">
         <v>0.95899999999999996</v>
       </c>
-      <c r="K68" s="8">
+      <c r="L68" s="8">
         <v>0.32129999999999997</v>
       </c>
-      <c r="L68" s="8">
+      <c r="M68" s="8">
         <v>0.88600000000000001</v>
       </c>
-      <c r="M68" s="8">
+      <c r="N68" s="8">
         <v>26</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <f t="shared" si="0"/>
+        <v>0.21949999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
@@ -1754,8 +2095,15 @@
       <c r="C70">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>1E-3</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -1774,8 +2122,12 @@
       <c r="H71">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <f t="shared" ref="P71:P134" si="1">L71-J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -1794,8 +2146,12 @@
       <c r="H72">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -1814,8 +2170,12 @@
       <c r="H73">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -1834,8 +2194,12 @@
       <c r="H74">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -1845,8 +2209,12 @@
       <c r="H75">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>15</v>
       </c>
@@ -1857,23 +2225,34 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="8">
+      <c r="I76" s="8"/>
+      <c r="J76" s="8">
         <v>0.12939999999999999</v>
       </c>
-      <c r="J76" s="8">
+      <c r="K76" s="8">
         <v>0.95099999999999996</v>
       </c>
-      <c r="K76" s="8">
+      <c r="L76" s="8">
         <v>0.29609999999999997</v>
       </c>
-      <c r="L76" s="8">
+      <c r="M76" s="8">
         <v>0.88339999999999996</v>
       </c>
-      <c r="M76" s="8">
+      <c r="N76" s="8">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <f t="shared" si="1"/>
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>36</v>
       </c>
@@ -1883,8 +2262,15 @@
       <c r="C78">
         <v>32</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>1E-3</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -1903,8 +2289,12 @@
       <c r="H79">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -1923,8 +2313,12 @@
       <c r="H80">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -1943,8 +2337,12 @@
       <c r="H81">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -1954,8 +2352,12 @@
       <c r="H82">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>15</v>
       </c>
@@ -1966,23 +2368,34 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="8">
+      <c r="I83" s="8"/>
+      <c r="J83" s="8">
         <v>0.18429999999999999</v>
       </c>
-      <c r="J83" s="8">
+      <c r="K83" s="8">
         <v>0.93030000000000002</v>
       </c>
-      <c r="K83" s="8">
+      <c r="L83" s="8">
         <v>0.31909999999999999</v>
       </c>
-      <c r="L83" s="8">
+      <c r="M83" s="8">
         <v>0.87749999999999995</v>
       </c>
-      <c r="M83" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N83" s="8">
+        <v>17</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="1"/>
+        <v>0.1348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
@@ -1992,8 +2405,15 @@
       <c r="C85">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>1E-3</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2012,8 +2432,12 @@
       <c r="H86">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -2032,8 +2456,12 @@
       <c r="H87">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -2052,8 +2480,12 @@
       <c r="H88">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2063,8 +2495,12 @@
       <c r="H89">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>15</v>
       </c>
@@ -2075,26 +2511,37 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="8">
+      <c r="I90" s="8"/>
+      <c r="J90" s="8">
         <v>0.20030000000000001</v>
       </c>
-      <c r="J90" s="8">
+      <c r="K90" s="8">
         <v>0.91759999999999997</v>
       </c>
-      <c r="K90" s="8">
+      <c r="L90" s="8">
         <v>0.28620000000000001</v>
       </c>
-      <c r="L90" s="8">
+      <c r="M90" s="8">
         <v>0.88770000000000004</v>
       </c>
-      <c r="M90" s="8">
+      <c r="N90" s="8">
         <v>15</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <f t="shared" si="1"/>
+        <v>8.5900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>38</v>
       </c>
@@ -2104,8 +2551,15 @@
       <c r="C92">
         <v>64</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>1E-3</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2124,8 +2578,12 @@
       <c r="H93">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -2144,8 +2602,12 @@
       <c r="H94">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -2164,8 +2626,12 @@
       <c r="H95">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -2175,8 +2641,12 @@
       <c r="H96">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>15</v>
       </c>
@@ -2187,23 +2657,34 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="8">
+      <c r="I97" s="8"/>
+      <c r="J97" s="8">
         <v>0.26700000000000002</v>
       </c>
-      <c r="J97" s="8">
+      <c r="K97" s="8">
         <v>0.88700000000000001</v>
       </c>
-      <c r="K97" s="8">
+      <c r="L97" s="8">
         <v>0.28089999999999998</v>
       </c>
-      <c r="L97" s="8">
+      <c r="M97" s="8">
         <v>0.87670000000000003</v>
       </c>
-      <c r="M97" s="8">
+      <c r="N97" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <f t="shared" si="1"/>
+        <v>1.3899999999999968E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
@@ -2213,8 +2694,15 @@
       <c r="C99">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>1E-3</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2233,8 +2721,12 @@
       <c r="H100">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -2253,8 +2745,12 @@
       <c r="H101">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -2273,8 +2769,12 @@
       <c r="H102">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -2284,8 +2784,12 @@
       <c r="H103">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>15</v>
       </c>
@@ -2296,23 +2800,34 @@
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="8">
+      <c r="I104" s="8"/>
+      <c r="J104" s="8">
         <v>0.2225</v>
       </c>
-      <c r="J104" s="8">
+      <c r="K104" s="8">
         <v>0.90720000000000001</v>
       </c>
-      <c r="K104" s="8">
+      <c r="L104" s="8">
         <v>0.30570000000000003</v>
       </c>
-      <c r="L104" s="8">
+      <c r="M104" s="8">
         <v>0.86990000000000001</v>
       </c>
-      <c r="M104" s="8">
+      <c r="N104" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P104">
+        <f t="shared" si="1"/>
+        <v>8.3200000000000024E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
@@ -2322,8 +2837,15 @@
       <c r="C106">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>1E-3</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2342,8 +2864,12 @@
       <c r="H107">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -2362,8 +2888,12 @@
       <c r="H108">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -2382,8 +2912,12 @@
       <c r="H109">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -2393,8 +2927,12 @@
       <c r="H110">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>15</v>
       </c>
@@ -2405,23 +2943,34 @@
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="8"/>
-      <c r="I111" s="8">
+      <c r="I111" s="8"/>
+      <c r="J111" s="8">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="J111" s="8">
+      <c r="K111" s="8">
         <v>0.96919999999999995</v>
       </c>
-      <c r="K111" s="8">
+      <c r="L111" s="8">
         <v>0.3538</v>
       </c>
-      <c r="L111" s="8">
+      <c r="M111" s="8">
         <v>0.86819999999999997</v>
       </c>
-      <c r="M111" s="8">
+      <c r="N111" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P111">
+        <f t="shared" si="1"/>
+        <v>0.2636</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>46</v>
       </c>
@@ -2431,8 +2980,15 @@
       <c r="C113">
         <v>32</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>1E-3</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2451,8 +3007,12 @@
       <c r="H114">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -2471,8 +3031,12 @@
       <c r="H115">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -2491,8 +3055,12 @@
       <c r="H116">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -2502,8 +3070,12 @@
       <c r="H117">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>15</v>
       </c>
@@ -2515,19 +3087,610 @@
       <c r="G118" s="10"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
+      <c r="J118" s="8">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="K118" s="8">
+        <v>0.54069999999999996</v>
+      </c>
+      <c r="L118" s="8">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="M118" s="8">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="N118" s="8">
+        <v>7</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120">
+        <v>32</v>
+      </c>
+      <c r="I120">
+        <v>1E-3</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121">
+        <v>16</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H121">
+        <v>0.2</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>64</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122">
+        <v>0.3</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123">
+        <v>64</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123">
+        <v>0.5</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124">
+        <v>128</v>
+      </c>
+      <c r="H124">
+        <v>0.5</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="K125" s="8">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="L125" s="8">
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="M125" s="8">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="N125" s="8">
+        <v>20</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="1"/>
+        <v>4.5299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="13">
+        <v>32</v>
+      </c>
+      <c r="D128" s="13"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+      <c r="P128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129">
+        <v>16</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129">
+        <v>0.2</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130">
+        <v>64</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130">
+        <v>0.3</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131">
+        <v>64</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H131">
+        <v>0.5</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <v>128</v>
+      </c>
+      <c r="H132">
+        <v>0.5</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8">
+        <v>0.26690000000000003</v>
+      </c>
+      <c r="K133" s="8">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="L133" s="8">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="M133" s="8">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="N133" s="8">
+        <v>20</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="1"/>
+        <v>1.8799999999999983E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P134">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135">
+        <v>32</v>
+      </c>
+      <c r="I135">
+        <v>1E-4</v>
+      </c>
+      <c r="P135">
+        <f t="shared" ref="P135:P147" si="2">L135-J135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136">
+        <v>16</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H136">
+        <v>0.2</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137">
+        <v>64</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H137">
+        <v>0.3</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138">
+        <v>64</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H138">
+        <v>0.5</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139">
+        <v>128</v>
+      </c>
+      <c r="H139">
+        <v>0.5</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="K140" s="8">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="L140" s="8">
+        <v>0.44890000000000002</v>
+      </c>
+      <c r="M140" s="8">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="N140" s="8">
+        <v>20</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="2"/>
+        <v>3.6400000000000043E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142">
+        <v>32</v>
+      </c>
+      <c r="I142">
+        <v>0.05</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143">
+        <v>16</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H143">
+        <v>0.2</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144">
+        <v>64</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H144">
+        <v>0.3</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145">
+        <v>64</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H145">
+        <v>0.5</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146">
+        <v>128</v>
+      </c>
+      <c r="H146">
+        <v>0.5</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="9"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="P147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K1:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:L10">
+  <conditionalFormatting sqref="L1:M1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8535A9-7375-46F0-A2F0-BDE9C4E43E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BF3556-EC5B-4026-A70A-598A639316D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="59">
   <si>
     <t>LAYER</t>
   </si>
@@ -171,9 +171,6 @@
     <t>(128, 128, 1)</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Baseline 1.0</t>
   </si>
   <si>
@@ -207,7 +204,19 @@
     <t xml:space="preserve">MODEL 2 </t>
   </si>
   <si>
-    <t>AUGMENT</t>
+    <t>A Zoom</t>
+  </si>
+  <si>
+    <t>A Rotat</t>
+  </si>
+  <si>
+    <t>A Transl</t>
+  </si>
+  <si>
+    <t>Augmentation</t>
+  </si>
+  <si>
+    <t>(0,2, 0,2)</t>
   </si>
 </sst>
 </file>
@@ -312,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,6 +351,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,11 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:T155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O150" sqref="O150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,9 +691,10 @@
     <col min="6" max="7" width="9.44140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -726,14 +737,22 @@
       <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="P1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -747,7 +766,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -767,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -775,7 +794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -802,23 +821,23 @@
       <c r="N6" s="8">
         <v>22</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <f>L6-J6</f>
         <v>0.1613</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P7">
-        <f t="shared" ref="P7:P70" si="0">L7-J7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <f>L7-J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -826,12 +845,12 @@
       <c r="I8">
         <v>1E-3</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <f>L8-J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -850,12 +869,12 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T9">
+        <f>L9-J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -882,18 +901,18 @@
       <c r="N10" s="8">
         <v>11</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
+      <c r="T10">
+        <f>L10-J10</f>
         <v>0.34370000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <f>L11-J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -906,12 +925,12 @@
       <c r="I12">
         <v>1E-3</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <f>L12-J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -930,12 +949,12 @@
       <c r="H13">
         <v>0.1</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <f>L13-J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -954,12 +973,12 @@
       <c r="H14">
         <v>0.1</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <f>L14-J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -969,12 +988,12 @@
       <c r="H15">
         <v>0.2</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T15">
+        <f>L15-J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -1001,18 +1020,18 @@
       <c r="N16" s="8">
         <v>13</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
+      <c r="T16">
+        <f>L16-J16</f>
         <v>0.23039999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <f>L17-J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1025,12 +1044,12 @@
       <c r="I18">
         <v>1E-3</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <f>L18-J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1049,12 +1068,12 @@
       <c r="H19">
         <v>0.1</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <f>L19-J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1073,12 +1092,12 @@
       <c r="H20">
         <v>0.1</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <f>L20-J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1097,12 +1116,12 @@
       <c r="H21">
         <v>0.2</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <f>L21-J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1112,12 +1131,12 @@
       <c r="H22">
         <v>0.3</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T22">
+        <f>L22-J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1144,18 +1163,18 @@
       <c r="N23" s="8">
         <v>24</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
+      <c r="T23">
+        <f>L23-J23</f>
         <v>0.20390000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <f>L24-J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1168,12 +1187,12 @@
       <c r="I25">
         <v>1E-3</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <f>L25-J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1192,12 +1211,12 @@
       <c r="H26">
         <v>0.3</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <f>L26-J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1216,12 +1235,12 @@
       <c r="H27">
         <v>0.3</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <f>L27-J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1240,12 +1259,12 @@
       <c r="H28">
         <v>0.3</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <f>L28-J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1255,12 +1274,12 @@
       <c r="H29">
         <v>0.5</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T29">
+        <f>L29-J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1287,18 +1306,18 @@
       <c r="N30" s="8">
         <v>25</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="0"/>
+      <c r="T30">
+        <f>L30-J30</f>
         <v>9.710000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T31">
         <f>L31-J31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1311,12 +1330,12 @@
       <c r="I32">
         <v>1E-3</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <f>L32-J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1335,12 +1354,12 @@
       <c r="H33">
         <v>0.3</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <f>L33-J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1359,12 +1378,12 @@
       <c r="H34">
         <v>0.3</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <f>L34-J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1383,12 +1402,12 @@
       <c r="H35">
         <v>0.3</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <f>L35-J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1398,12 +1417,12 @@
       <c r="H36">
         <v>0.5</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T36">
+        <f>L36-J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
@@ -1430,18 +1449,18 @@
       <c r="N37" s="8">
         <v>25</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="0"/>
+      <c r="T37">
+        <f>L37-J37</f>
         <v>0.19059999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <f>L38-J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -1454,12 +1473,12 @@
       <c r="I39">
         <v>1E-3</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <f>L39-J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1478,12 +1497,12 @@
       <c r="H40">
         <v>0.3</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <f>L40-J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1502,12 +1521,12 @@
       <c r="H41">
         <v>0.3</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <f>L41-J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1526,12 +1545,12 @@
       <c r="H42">
         <v>0.3</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <f>L42-J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1541,12 +1560,12 @@
       <c r="H43">
         <v>0.5</v>
       </c>
-      <c r="P43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T43">
+        <f>L43-J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>15</v>
       </c>
@@ -1573,18 +1592,18 @@
       <c r="N44" s="8">
         <v>26</v>
       </c>
-      <c r="P44">
-        <f t="shared" si="0"/>
+      <c r="T44">
+        <f>L44-J44</f>
         <v>0.11320000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <f>L45-J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -1597,12 +1616,12 @@
       <c r="I46">
         <v>1E-3</v>
       </c>
-      <c r="P46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <f>L46-J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1621,12 +1640,12 @@
       <c r="H47">
         <v>0.2</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <f>L47-J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1645,12 +1664,12 @@
       <c r="H48">
         <v>0.3</v>
       </c>
-      <c r="P48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <f>L48-J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1669,12 +1688,12 @@
       <c r="H49">
         <v>0.3</v>
       </c>
-      <c r="P49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <f>L49-J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -1693,12 +1712,12 @@
       <c r="H50">
         <v>0.4</v>
       </c>
-      <c r="P50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <f>L50-J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1708,12 +1727,12 @@
       <c r="H51">
         <v>0.5</v>
       </c>
-      <c r="P51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T51">
+        <f>L51-J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>15</v>
       </c>
@@ -1740,18 +1759,18 @@
       <c r="N52" s="8">
         <v>28</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="0"/>
+      <c r="T52">
+        <f>L52-J52</f>
         <v>0.31720000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <f>L53-J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -1764,12 +1783,12 @@
       <c r="I54">
         <v>1E-3</v>
       </c>
-      <c r="P54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <f>L54-J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1788,12 +1807,12 @@
       <c r="H55">
         <v>0.2</v>
       </c>
-      <c r="P55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <f>L55-J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1812,12 +1831,12 @@
       <c r="H56">
         <v>0.3</v>
       </c>
-      <c r="P56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <f>L56-J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -1836,12 +1855,12 @@
       <c r="H57">
         <v>0.3</v>
       </c>
-      <c r="P57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <f>L57-J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -1860,12 +1879,12 @@
       <c r="H58">
         <v>0.4</v>
       </c>
-      <c r="P58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <f>L58-J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1875,12 +1894,12 @@
       <c r="H59">
         <v>0.5</v>
       </c>
-      <c r="P59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T59">
+        <f>L59-J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>15</v>
       </c>
@@ -1907,18 +1926,18 @@
       <c r="N60" s="8">
         <v>22</v>
       </c>
-      <c r="P60">
-        <f t="shared" si="0"/>
+      <c r="T60">
+        <f>L60-J60</f>
         <v>0.20050000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <f>L61-J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -1931,12 +1950,12 @@
       <c r="I62">
         <v>1E-3</v>
       </c>
-      <c r="P62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <f>L62-J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -1955,12 +1974,12 @@
       <c r="H63">
         <v>0.2</v>
       </c>
-      <c r="P63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <f>L63-J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -1979,12 +1998,12 @@
       <c r="H64">
         <v>0.3</v>
       </c>
-      <c r="P64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <f>L64-J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -2003,12 +2022,12 @@
       <c r="H65">
         <v>0.3</v>
       </c>
-      <c r="P65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <f>L65-J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2027,12 +2046,12 @@
       <c r="H66">
         <v>0.4</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <f>L66-J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2042,12 +2061,12 @@
       <c r="H67">
         <v>0.5</v>
       </c>
-      <c r="P67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T67">
+        <f>L67-J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>15</v>
       </c>
@@ -2074,18 +2093,18 @@
       <c r="N68" s="8">
         <v>26</v>
       </c>
-      <c r="P68">
-        <f t="shared" si="0"/>
+      <c r="T68">
+        <f>L68-J68</f>
         <v>0.21949999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <f>L69-J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
@@ -2098,12 +2117,12 @@
       <c r="I70">
         <v>1E-3</v>
       </c>
-      <c r="P70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <f>L70-J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2122,12 +2141,12 @@
       <c r="H71">
         <v>0.2</v>
       </c>
-      <c r="P71">
-        <f t="shared" ref="P71:P134" si="1">L71-J71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T71">
+        <f>L71-J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2146,12 +2165,12 @@
       <c r="H72">
         <v>0.3</v>
       </c>
-      <c r="P72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T72">
+        <f>L72-J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -2170,12 +2189,12 @@
       <c r="H73">
         <v>0.4</v>
       </c>
-      <c r="P73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T73">
+        <f>L73-J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -2194,12 +2213,12 @@
       <c r="H74">
         <v>0.4</v>
       </c>
-      <c r="P74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T74">
+        <f>L74-J74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -2209,12 +2228,12 @@
       <c r="H75">
         <v>0.5</v>
       </c>
-      <c r="P75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T75">
+        <f>L75-J75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2241,18 +2260,18 @@
       <c r="N76" s="8">
         <v>26</v>
       </c>
-      <c r="P76">
-        <f t="shared" si="1"/>
+      <c r="T76">
+        <f>L76-J76</f>
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T77">
+        <f>L77-J77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>36</v>
       </c>
@@ -2265,12 +2284,12 @@
       <c r="I78">
         <v>1E-3</v>
       </c>
-      <c r="P78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T78">
+        <f>L78-J78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2289,12 +2308,12 @@
       <c r="H79">
         <v>0.2</v>
       </c>
-      <c r="P79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T79">
+        <f>L79-J79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -2313,12 +2332,12 @@
       <c r="H80">
         <v>0.3</v>
       </c>
-      <c r="P80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T80">
+        <f>L80-J80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -2337,12 +2356,12 @@
       <c r="H81">
         <v>0.4</v>
       </c>
-      <c r="P81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T81">
+        <f>L81-J81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -2352,12 +2371,12 @@
       <c r="H82">
         <v>0.5</v>
       </c>
-      <c r="P82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T82">
+        <f>L82-J82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>15</v>
       </c>
@@ -2384,18 +2403,18 @@
       <c r="N83" s="8">
         <v>17</v>
       </c>
-      <c r="P83">
-        <f t="shared" si="1"/>
+      <c r="T83">
+        <f>L83-J83</f>
         <v>0.1348</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T84">
+        <f>L84-J84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
@@ -2408,12 +2427,12 @@
       <c r="I85">
         <v>1E-3</v>
       </c>
-      <c r="P85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T85">
+        <f>L85-J85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2432,12 +2451,12 @@
       <c r="H86">
         <v>0.2</v>
       </c>
-      <c r="P86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T86">
+        <f>L86-J86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -2456,12 +2475,12 @@
       <c r="H87">
         <v>0.3</v>
       </c>
-      <c r="P87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T87">
+        <f>L87-J87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -2480,12 +2499,12 @@
       <c r="H88">
         <v>0.4</v>
       </c>
-      <c r="P88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T88">
+        <f>L88-J88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2495,12 +2514,12 @@
       <c r="H89">
         <v>0.5</v>
       </c>
-      <c r="P89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T89">
+        <f>L89-J89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>15</v>
       </c>
@@ -2527,21 +2546,18 @@
       <c r="N90" s="8">
         <v>15</v>
       </c>
-      <c r="O90" t="s">
-        <v>43</v>
-      </c>
-      <c r="P90">
-        <f t="shared" si="1"/>
+      <c r="T90">
+        <f>L90-J90</f>
         <v>8.5900000000000004E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T91">
+        <f>L91-J91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>38</v>
       </c>
@@ -2554,12 +2570,12 @@
       <c r="I92">
         <v>1E-3</v>
       </c>
-      <c r="P92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T92">
+        <f>L92-J92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2578,12 +2594,12 @@
       <c r="H93">
         <v>0.2</v>
       </c>
-      <c r="P93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T93">
+        <f>L93-J93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -2602,12 +2618,12 @@
       <c r="H94">
         <v>0.3</v>
       </c>
-      <c r="P94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T94">
+        <f>L94-J94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -2626,12 +2642,12 @@
       <c r="H95">
         <v>0.5</v>
       </c>
-      <c r="P95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T95">
+        <f>L95-J95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -2641,12 +2657,12 @@
       <c r="H96">
         <v>0.5</v>
       </c>
-      <c r="P96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T96">
+        <f>L96-J96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>15</v>
       </c>
@@ -2673,18 +2689,18 @@
       <c r="N97" s="8">
         <v>15</v>
       </c>
-      <c r="P97">
-        <f t="shared" si="1"/>
+      <c r="T97">
+        <f>L97-J97</f>
         <v>1.3899999999999968E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T98">
+        <f>L98-J98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
@@ -2697,12 +2713,12 @@
       <c r="I99">
         <v>1E-3</v>
       </c>
-      <c r="P99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T99">
+        <f>L99-J99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2721,12 +2737,12 @@
       <c r="H100">
         <v>0.2</v>
       </c>
-      <c r="P100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T100">
+        <f>L100-J100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -2745,12 +2761,12 @@
       <c r="H101">
         <v>0.3</v>
       </c>
-      <c r="P101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T101">
+        <f>L101-J101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -2769,12 +2785,12 @@
       <c r="H102">
         <v>0.5</v>
       </c>
-      <c r="P102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T102">
+        <f>L102-J102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -2784,12 +2800,12 @@
       <c r="H103">
         <v>0.5</v>
       </c>
-      <c r="P103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T103">
+        <f>L103-J103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>15</v>
       </c>
@@ -2816,18 +2832,18 @@
       <c r="N104" s="8">
         <v>15</v>
       </c>
-      <c r="P104">
-        <f t="shared" si="1"/>
+      <c r="T104">
+        <f>L104-J104</f>
         <v>8.3200000000000024E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T105">
+        <f>L105-J105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
@@ -2840,12 +2856,12 @@
       <c r="I106">
         <v>1E-3</v>
       </c>
-      <c r="P106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T106">
+        <f>L106-J106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2864,12 +2880,12 @@
       <c r="H107">
         <v>0.2</v>
       </c>
-      <c r="P107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T107">
+        <f>L107-J107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -2888,12 +2904,12 @@
       <c r="H108">
         <v>0.2</v>
       </c>
-      <c r="P108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T108">
+        <f>L108-J108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -2912,12 +2928,12 @@
       <c r="H109">
         <v>0.3</v>
       </c>
-      <c r="P109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T109">
+        <f>L109-J109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -2927,12 +2943,12 @@
       <c r="H110">
         <v>0.5</v>
       </c>
-      <c r="P110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T110">
+        <f>L110-J110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>15</v>
       </c>
@@ -2959,20 +2975,20 @@
       <c r="N111" s="8">
         <v>15</v>
       </c>
-      <c r="P111">
-        <f t="shared" si="1"/>
+      <c r="T111">
+        <f>L111-J111</f>
         <v>0.2636</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T112">
+        <f>L112-J112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>42</v>
@@ -2983,12 +2999,12 @@
       <c r="I113">
         <v>1E-3</v>
       </c>
-      <c r="P113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T113">
+        <f>L113-J113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -3007,12 +3023,12 @@
       <c r="H114">
         <v>0.2</v>
       </c>
-      <c r="P114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T114">
+        <f>L114-J114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -3031,12 +3047,12 @@
       <c r="H115">
         <v>0.3</v>
       </c>
-      <c r="P115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T115">
+        <f>L115-J115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3055,12 +3071,12 @@
       <c r="H116">
         <v>0.5</v>
       </c>
-      <c r="P116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T116">
+        <f>L116-J116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -3070,12 +3086,12 @@
       <c r="H117">
         <v>0.5</v>
       </c>
-      <c r="P117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T117">
+        <f>L117-J117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>15</v>
       </c>
@@ -3102,23 +3118,23 @@
       <c r="N118" s="8">
         <v>7</v>
       </c>
-      <c r="P118">
-        <f t="shared" si="1"/>
+      <c r="T118">
+        <f>L118-J118</f>
         <v>-0.6</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T119">
+        <f>L119-J119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C120">
         <v>32</v>
@@ -3126,12 +3142,12 @@
       <c r="I120">
         <v>1E-3</v>
       </c>
-      <c r="P120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T120">
+        <f>L120-J120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -3150,12 +3166,12 @@
       <c r="H121">
         <v>0.2</v>
       </c>
-      <c r="P121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T121">
+        <f>L121-J121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3174,12 +3190,12 @@
       <c r="H122">
         <v>0.3</v>
       </c>
-      <c r="P122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T122">
+        <f>L122-J122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -3198,12 +3214,12 @@
       <c r="H123">
         <v>0.5</v>
       </c>
-      <c r="P123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T123">
+        <f>L123-J123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -3213,12 +3229,12 @@
       <c r="H124">
         <v>0.5</v>
       </c>
-      <c r="P124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T124">
+        <f>L124-J124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>15</v>
       </c>
@@ -3245,32 +3261,32 @@
       <c r="N125" s="8">
         <v>20</v>
       </c>
-      <c r="P125">
-        <f t="shared" si="1"/>
+      <c r="T125">
+        <f>L125-J125</f>
         <v>4.5299999999999979E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T126">
+        <f>L126-J126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="T127">
+        <f>L127-J127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C128" s="13">
         <v>32</v>
@@ -3288,12 +3304,12 @@
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
-      <c r="P128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T128">
+        <f>L128-J128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -3312,12 +3328,12 @@
       <c r="H129">
         <v>0.2</v>
       </c>
-      <c r="P129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T129">
+        <f>L129-J129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -3336,12 +3352,12 @@
       <c r="H130">
         <v>0.3</v>
       </c>
-      <c r="P130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T130">
+        <f>L130-J130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -3360,12 +3376,12 @@
       <c r="H131">
         <v>0.5</v>
       </c>
-      <c r="P131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T131">
+        <f>L131-J131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -3375,12 +3391,12 @@
       <c r="H132">
         <v>0.5</v>
       </c>
-      <c r="P132">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T132">
+        <f>L132-J132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>15</v>
       </c>
@@ -3407,23 +3423,23 @@
       <c r="N133" s="8">
         <v>20</v>
       </c>
-      <c r="P133">
-        <f t="shared" si="1"/>
+      <c r="T133">
+        <f>L133-J133</f>
         <v>1.8799999999999983E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P134">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T134">
+        <f>L134-J134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C135">
         <v>32</v>
@@ -3431,12 +3447,12 @@
       <c r="I135">
         <v>1E-4</v>
       </c>
-      <c r="P135">
-        <f t="shared" ref="P135:P147" si="2">L135-J135</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T135">
+        <f>L135-J135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -3455,12 +3471,12 @@
       <c r="H136">
         <v>0.2</v>
       </c>
-      <c r="P136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T136">
+        <f>L136-J136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -3479,12 +3495,12 @@
       <c r="H137">
         <v>0.3</v>
       </c>
-      <c r="P137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T137">
+        <f>L137-J137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -3503,12 +3519,12 @@
       <c r="H138">
         <v>0.5</v>
       </c>
-      <c r="P138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T138">
+        <f>L138-J138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -3518,12 +3534,12 @@
       <c r="H139">
         <v>0.5</v>
       </c>
-      <c r="P139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T139">
+        <f>L139-J139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>15</v>
       </c>
@@ -3550,36 +3566,36 @@
       <c r="N140" s="8">
         <v>20</v>
       </c>
-      <c r="P140">
-        <f t="shared" si="2"/>
+      <c r="T140">
+        <f>L140-J140</f>
         <v>3.6400000000000043E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T141">
+        <f>L141-J141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C142">
         <v>32</v>
       </c>
       <c r="I142">
-        <v>0.05</v>
-      </c>
-      <c r="P142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="T142">
+        <f>L142-J142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -3598,12 +3614,12 @@
       <c r="H143">
         <v>0.2</v>
       </c>
-      <c r="P143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T143">
+        <f>L143-J143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3622,12 +3638,12 @@
       <c r="H144">
         <v>0.3</v>
       </c>
-      <c r="P144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T144">
+        <f>L144-J144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>22</v>
       </c>
@@ -3646,12 +3662,12 @@
       <c r="H145">
         <v>0.5</v>
       </c>
-      <c r="P145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T145">
+        <f>L145-J145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -3661,12 +3677,12 @@
       <c r="H146">
         <v>0.5</v>
       </c>
-      <c r="P146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T146">
+        <f>L146-J146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>15</v>
       </c>
@@ -3678,14 +3694,175 @@
       <c r="G147" s="10"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-      <c r="P147">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J147" s="8">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="K147" s="8">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="L147" s="8">
+        <v>0.36990000000000001</v>
+      </c>
+      <c r="M147" s="8">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="N147" s="8">
+        <v>15</v>
+      </c>
+      <c r="T147">
+        <f>L147-J147</f>
+        <v>6.1300000000000021E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149">
+        <v>32</v>
+      </c>
+      <c r="I149">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="T149">
+        <f>L149-J149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A150" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O150">
+        <v>0.2</v>
+      </c>
+      <c r="P150">
+        <v>0.2</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151">
+        <v>16</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H151">
+        <v>0.2</v>
+      </c>
+      <c r="T151">
+        <f>L151-J151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152">
+        <v>64</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152">
+        <v>0.3</v>
+      </c>
+      <c r="T152">
+        <f>L152-J152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153">
+        <v>64</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H153">
+        <v>0.5</v>
+      </c>
+      <c r="T153">
+        <f>L153-J153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154">
+        <v>128</v>
+      </c>
+      <c r="H154">
+        <v>0.5</v>
+      </c>
+      <c r="T154">
+        <f>L154-J154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="K155" s="8">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="L155" s="8">
+        <v>1.079</v>
+      </c>
+      <c r="M155" s="8">
+        <v>0.54810000000000003</v>
+      </c>
+      <c r="N155" s="8">
+        <v>15</v>
+      </c>
+      <c r="T155">
+        <f>L155-J155</f>
+        <v>0.54619999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BF3556-EC5B-4026-A70A-598A639316D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60FCA89-4A05-4D20-8A8B-E01DA03A7BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="62">
   <si>
     <t>LAYER</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>(0,2, 0,2)</t>
+  </si>
+  <si>
+    <t>Model 2.3</t>
+  </si>
+  <si>
+    <t>A Flip</t>
+  </si>
+  <si>
+    <t>hor</t>
   </si>
 </sst>
 </file>
@@ -674,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:T155"/>
+  <dimension ref="A1:T163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O150" sqref="O150"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +755,9 @@
       <c r="Q1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="S1" s="3"/>
       <c r="T1" s="3" t="s">
         <v>52</v>
@@ -3863,6 +3874,154 @@
       <c r="T155">
         <f>L155-J155</f>
         <v>0.54619999999999991</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157">
+        <v>32</v>
+      </c>
+      <c r="I157">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="T157">
+        <f>L157-J157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A158" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P158">
+        <v>0.2</v>
+      </c>
+      <c r="R158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159">
+        <v>16</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H159">
+        <v>0.2</v>
+      </c>
+      <c r="T159">
+        <f>L159-J159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160">
+        <v>64</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H160">
+        <v>0.3</v>
+      </c>
+      <c r="T160">
+        <f>L160-J160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161">
+        <v>64</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H161">
+        <v>0.5</v>
+      </c>
+      <c r="T161">
+        <f>L161-J161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162">
+        <v>128</v>
+      </c>
+      <c r="H162">
+        <v>0.5</v>
+      </c>
+      <c r="T162">
+        <f>L162-J162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="K163" s="8">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="L163" s="8">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="M163" s="8">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="N163" s="8">
+        <v>30</v>
+      </c>
+      <c r="T163">
+        <f>L163-J163</f>
+        <v>4.8400000000000026E-2</v>
       </c>
     </row>
   </sheetData>

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60FCA89-4A05-4D20-8A8B-E01DA03A7BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8292DA-75CF-49C8-858E-ADBF903F64DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="63">
   <si>
     <t>LAYER</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>hor</t>
+  </si>
+  <si>
+    <t>Model 2.4</t>
   </si>
 </sst>
 </file>
@@ -683,11 +686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:T163"/>
+  <dimension ref="A1:T171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V171" sqref="V171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4024,6 +4027,160 @@
         <v>4.8400000000000026E-2</v>
       </c>
     </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165">
+        <v>32</v>
+      </c>
+      <c r="I165">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="T165">
+        <f>L165-J165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A166" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O166">
+        <v>0.2</v>
+      </c>
+      <c r="P166">
+        <v>0.2</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>58</v>
+      </c>
+      <c r="R166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167">
+        <v>16</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H167">
+        <v>0.2</v>
+      </c>
+      <c r="T167">
+        <f>L167-J167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168">
+        <v>64</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H168">
+        <v>0.3</v>
+      </c>
+      <c r="T168">
+        <f>L168-J168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169">
+        <v>64</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H169">
+        <v>0.5</v>
+      </c>
+      <c r="T169">
+        <f>L169-J169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170">
+        <v>128</v>
+      </c>
+      <c r="H170">
+        <v>0.5</v>
+      </c>
+      <c r="T170">
+        <f>L170-J170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8">
+        <v>0.45490000000000003</v>
+      </c>
+      <c r="K171" s="8">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="L171" s="8">
+        <v>0.7742</v>
+      </c>
+      <c r="M171" s="8">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="N171" s="8">
+        <v>33</v>
+      </c>
+      <c r="T171">
+        <f>L171-J171</f>
+        <v>0.31929999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:M1048576">

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8292DA-75CF-49C8-858E-ADBF903F64DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C0A04-83E5-4F64-80B2-030A8F5E18DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="66">
   <si>
     <t>LAYER</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>Model 2.4</t>
+  </si>
+  <si>
+    <t>Model 2.5</t>
+  </si>
+  <si>
+    <t>(0,3 0,3)</t>
+  </si>
+  <si>
+    <t>hor_ver</t>
   </si>
 </sst>
 </file>
@@ -686,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:T171"/>
+  <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V171" sqref="V171"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N179" sqref="N179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4181,6 +4190,160 @@
         <v>0.31929999999999997</v>
       </c>
     </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C173">
+        <v>32</v>
+      </c>
+      <c r="I173">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="T173">
+        <f>L173-J173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A174" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O174">
+        <v>0.5</v>
+      </c>
+      <c r="P174">
+        <v>0.1</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>64</v>
+      </c>
+      <c r="R174" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175">
+        <v>32</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H175">
+        <v>0.2</v>
+      </c>
+      <c r="T175">
+        <f>L175-J175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176">
+        <v>64</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H176">
+        <v>0.3</v>
+      </c>
+      <c r="T176">
+        <f>L176-J176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177">
+        <v>64</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H177">
+        <v>0.5</v>
+      </c>
+      <c r="T177">
+        <f>L177-J177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178">
+        <v>128</v>
+      </c>
+      <c r="H178">
+        <v>0.5</v>
+      </c>
+      <c r="T178">
+        <f>L178-J178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="9"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="K179" s="8">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="L179" s="8">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="M179" s="8">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="N179" s="8">
+        <v>30</v>
+      </c>
+      <c r="T179">
+        <f>L179-J179</f>
+        <v>0.18919999999999992</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:M1048576">

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C0A04-83E5-4F64-80B2-030A8F5E18DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C17189-D384-4FC8-8A7B-DB249695F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="69">
   <si>
     <t>LAYER</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>hor_ver</t>
+  </si>
+  <si>
+    <t>Model 2.6</t>
+  </si>
+  <si>
+    <t>Model 2.7</t>
+  </si>
+  <si>
+    <t>(0,1 0,1)</t>
   </si>
 </sst>
 </file>
@@ -695,11 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:T179"/>
+  <dimension ref="A1:T195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N179" sqref="N179"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T195" sqref="T195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4344,6 +4353,314 @@
         <v>0.18919999999999992</v>
       </c>
     </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C181">
+        <v>32</v>
+      </c>
+      <c r="I181">
+        <v>1E-4</v>
+      </c>
+      <c r="T181">
+        <f>L181-J181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A182" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O182">
+        <v>0.5</v>
+      </c>
+      <c r="P182">
+        <v>0.2</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>64</v>
+      </c>
+      <c r="R182" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183">
+        <v>32</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H183">
+        <v>0.2</v>
+      </c>
+      <c r="T183">
+        <f>L183-J183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184">
+        <v>64</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H184">
+        <v>0.3</v>
+      </c>
+      <c r="T184">
+        <f>L184-J184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185">
+        <v>64</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H185">
+        <v>0.5</v>
+      </c>
+      <c r="T185">
+        <f>L185-J185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186">
+        <v>128</v>
+      </c>
+      <c r="H186">
+        <v>0.5</v>
+      </c>
+      <c r="T186">
+        <f>L186-J186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="9"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="K187" s="8">
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="L187" s="8">
+        <v>2.5042</v>
+      </c>
+      <c r="M187" s="8">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="N187" s="8">
+        <v>35</v>
+      </c>
+      <c r="T187">
+        <f>L187-J187</f>
+        <v>1.9289000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C189">
+        <v>16</v>
+      </c>
+      <c r="I189">
+        <v>1E-4</v>
+      </c>
+      <c r="T189">
+        <f>L189-J189</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A190" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O190">
+        <v>0.2</v>
+      </c>
+      <c r="P190">
+        <v>0.2</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>68</v>
+      </c>
+      <c r="R190" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191">
+        <v>32</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H191">
+        <v>0.2</v>
+      </c>
+      <c r="T191">
+        <f>L191-J191</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192">
+        <v>64</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H192">
+        <v>0.3</v>
+      </c>
+      <c r="T192">
+        <f>L192-J192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>22</v>
+      </c>
+      <c r="D193">
+        <v>64</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H193">
+        <v>0.5</v>
+      </c>
+      <c r="T193">
+        <f>L193-J193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194">
+        <v>128</v>
+      </c>
+      <c r="H194">
+        <v>0.5</v>
+      </c>
+      <c r="T194">
+        <f>L194-J194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="9"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="8"/>
+      <c r="J195" s="8">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="K195" s="8">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="L195" s="8">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="M195" s="8">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="N195" s="8">
+        <v>40</v>
+      </c>
+      <c r="T195">
+        <f>L195-J195</f>
+        <v>0.33670000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:M1048576">

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C17189-D384-4FC8-8A7B-DB249695F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE0BCC2-A95D-4D11-8D30-0D6D2183A8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="71">
   <si>
     <t>LAYER</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>(0,1 0,1)</t>
+  </si>
+  <si>
+    <t>MODEL 3</t>
+  </si>
+  <si>
+    <t>Model 3.0</t>
   </si>
 </sst>
 </file>
@@ -704,11 +710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:T195"/>
+  <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T195" sqref="T195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4661,6 +4667,152 @@
         <v>0.33670000000000005</v>
       </c>
     </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T197">
+        <f>L197-J197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A198" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" s="13">
+        <v>16</v>
+      </c>
+      <c r="D198" s="13"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J198" s="13"/>
+      <c r="K198" s="13"/>
+      <c r="L198" s="13"/>
+      <c r="M198" s="13"/>
+      <c r="N198" s="13"/>
+      <c r="T198">
+        <f>L198-J198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199">
+        <v>16</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199">
+        <v>0.2</v>
+      </c>
+      <c r="T199">
+        <f>L199-J199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200">
+        <v>64</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H200">
+        <v>0.3</v>
+      </c>
+      <c r="T200">
+        <f>L200-J200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201">
+        <v>64</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H201">
+        <v>0.5</v>
+      </c>
+      <c r="T201">
+        <f>L201-J201</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202">
+        <v>128</v>
+      </c>
+      <c r="H202">
+        <v>0.5</v>
+      </c>
+      <c r="T202">
+        <f>L202-J202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="9"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8"/>
+      <c r="K203" s="8"/>
+      <c r="L203" s="8"/>
+      <c r="M203" s="8"/>
+      <c r="N203" s="8"/>
+      <c r="T203">
+        <f>L203-J203</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:M1048576">

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE0BCC2-A95D-4D11-8D30-0D6D2183A8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BBD1D8-D2E0-4D04-B03C-717D29FF9DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="75">
   <si>
     <t>LAYER</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>Model 3.0</t>
+  </si>
+  <si>
+    <t>Model 3.1</t>
+  </si>
+  <si>
+    <t>Model 3.2</t>
+  </si>
+  <si>
+    <t>STRIDE</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -357,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -388,6 +400,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
-  <dimension ref="A1:T203"/>
+  <dimension ref="A1:U219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,12 +749,13 @@
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="10" style="7" customWidth="1"/>
     <col min="6" max="7" width="9.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,45 +777,48 @@
       <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -800,11 +828,11 @@
       <c r="C3">
         <v>32</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -820,11 +848,11 @@
       <c r="G4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -832,7 +860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -842,35 +870,36 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>0.89749999999999996</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M6" s="8">
         <v>0.45329999999999998</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>0.79900000000000004</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>22</v>
       </c>
-      <c r="T6">
-        <f>L6-J6</f>
+      <c r="U6">
+        <f>M6-K6</f>
         <v>0.1613</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T7">
-        <f>L7-J7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <f>M7-K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -880,15 +909,15 @@
       <c r="C8">
         <v>32</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1E-3</v>
       </c>
-      <c r="T8">
-        <f>L8-J8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <f>M8-K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -904,15 +933,15 @@
       <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f>L9-J9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>M9-K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -922,35 +951,36 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
         <v>0.15859999999999999</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>0.95689999999999997</v>
       </c>
-      <c r="L10" s="8">
+      <c r="M10" s="8">
         <v>0.50229999999999997</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>0.79730000000000001</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <v>11</v>
       </c>
-      <c r="T10">
-        <f>L10-J10</f>
+      <c r="U10">
+        <f>M10-K10</f>
         <v>0.34370000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T11">
-        <f>L11-J11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <f>M11-K11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -960,15 +990,15 @@
       <c r="C12">
         <v>32</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1E-3</v>
       </c>
-      <c r="T12">
-        <f>L12-J12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <f>M12-K12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -984,15 +1014,15 @@
       <c r="G13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.1</v>
       </c>
-      <c r="T13">
-        <f>L13-J13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <f>M13-K13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1008,30 +1038,30 @@
       <c r="G14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="T14">
-        <f>L14-J14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <f>M14-K14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="D15">
         <v>32</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.2</v>
       </c>
-      <c r="T15">
-        <f>L15-J15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U15">
+        <f>M15-K15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -1041,35 +1071,36 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
         <v>0.1769</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>0.93030000000000002</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M16" s="8">
         <v>0.4073</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>0.84289999999999998</v>
       </c>
-      <c r="N16" s="8">
-        <v>13</v>
-      </c>
-      <c r="T16">
-        <f>L16-J16</f>
+      <c r="O16" s="8">
+        <v>13</v>
+      </c>
+      <c r="U16">
+        <f>M16-K16</f>
         <v>0.23039999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T17">
-        <f>L17-J17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <f>M17-K17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1079,15 +1110,15 @@
       <c r="C18">
         <v>32</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1E-3</v>
       </c>
-      <c r="T18">
-        <f>L18-J18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <f>M18-K18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1103,15 +1134,15 @@
       <c r="G19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.1</v>
       </c>
-      <c r="T19">
-        <f>L19-J19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <f>M19-K19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1127,15 +1158,15 @@
       <c r="G20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.1</v>
       </c>
-      <c r="T20">
-        <f>L20-J20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <f>M20-K20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1151,30 +1182,30 @@
       <c r="G21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.2</v>
       </c>
-      <c r="T21">
-        <f>L21-J21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <f>M21-K21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="D22">
         <v>64</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3</v>
       </c>
-      <c r="T22">
-        <f>L22-J22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U22">
+        <f>M22-K22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1184,35 +1215,36 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="8">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
         <v>0.112</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>0.95479999999999998</v>
       </c>
-      <c r="L23" s="8">
+      <c r="M23" s="8">
         <v>0.31590000000000001</v>
       </c>
-      <c r="M23" s="8">
+      <c r="N23" s="8">
         <v>0.88770000000000004</v>
       </c>
-      <c r="N23" s="8">
+      <c r="O23" s="8">
         <v>24</v>
       </c>
-      <c r="T23">
-        <f>L23-J23</f>
+      <c r="U23">
+        <f>M23-K23</f>
         <v>0.20390000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T24">
-        <f>L24-J24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <f>M24-K24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1222,15 +1254,15 @@
       <c r="C25">
         <v>32</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1E-3</v>
       </c>
-      <c r="T25">
-        <f>L25-J25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25">
+        <f>M25-K25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1246,15 +1278,15 @@
       <c r="G26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.3</v>
       </c>
-      <c r="T26">
-        <f>L26-J26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26">
+        <f>M26-K26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1270,15 +1302,15 @@
       <c r="G27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.3</v>
       </c>
-      <c r="T27">
-        <f>L27-J27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <f>M27-K27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1294,30 +1326,30 @@
       <c r="G28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.3</v>
       </c>
-      <c r="T28">
-        <f>L28-J28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <f>M28-K28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="D29">
         <v>64</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.5</v>
       </c>
-      <c r="T29">
-        <f>L29-J29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U29">
+        <f>M29-K29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1327,35 +1359,36 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8">
         <v>0.20810000000000001</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>0.91269999999999996</v>
       </c>
-      <c r="L30" s="8">
+      <c r="M30" s="8">
         <v>0.30520000000000003</v>
       </c>
-      <c r="M30" s="8">
+      <c r="N30" s="8">
         <v>0.879</v>
       </c>
-      <c r="N30" s="8">
+      <c r="O30" s="8">
         <v>25</v>
       </c>
-      <c r="T30">
-        <f>L30-J30</f>
+      <c r="U30">
+        <f>M30-K30</f>
         <v>9.710000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T31">
-        <f>L31-J31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <f>M31-K31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,15 +1398,15 @@
       <c r="C32">
         <v>32</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1E-3</v>
       </c>
-      <c r="T32">
-        <f>L32-J32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <f>M32-K32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1389,15 +1422,15 @@
       <c r="G33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.3</v>
       </c>
-      <c r="T33">
-        <f>L33-J33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <f>M33-K33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1413,15 +1446,15 @@
       <c r="G34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.3</v>
       </c>
-      <c r="T34">
-        <f>L34-J34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34">
+        <f>M34-K34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1437,30 +1470,30 @@
       <c r="G35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.3</v>
       </c>
-      <c r="T35">
-        <f>L35-J35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35">
+        <f>M35-K35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="D36">
         <v>128</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.5</v>
       </c>
-      <c r="T36">
-        <f>L36-J36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U36">
+        <f>M36-K36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
@@ -1470,35 +1503,36 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="8">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>0.96340000000000003</v>
       </c>
-      <c r="L37" s="8">
+      <c r="M37" s="8">
         <v>0.28820000000000001</v>
       </c>
-      <c r="M37" s="8">
+      <c r="N37" s="8">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N37" s="8">
+      <c r="O37" s="8">
         <v>25</v>
       </c>
-      <c r="T37">
-        <f>L37-J37</f>
+      <c r="U37">
+        <f>M37-K37</f>
         <v>0.19059999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T38">
-        <f>L38-J38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U38">
+        <f>M38-K38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -1508,15 +1542,15 @@
       <c r="C39">
         <v>32</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1E-3</v>
       </c>
-      <c r="T39">
-        <f>L39-J39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U39">
+        <f>M39-K39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1532,15 +1566,15 @@
       <c r="G40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.3</v>
       </c>
-      <c r="T40">
-        <f>L40-J40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40">
+        <f>M40-K40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1556,15 +1590,15 @@
       <c r="G41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.3</v>
       </c>
-      <c r="T41">
-        <f>L41-J41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41">
+        <f>M41-K41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1580,30 +1614,30 @@
       <c r="G42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.3</v>
       </c>
-      <c r="T42">
-        <f>L42-J42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42">
+        <f>M42-K42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="D43">
         <v>128</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.5</v>
       </c>
-      <c r="T43">
-        <f>L43-J43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U43">
+        <f>M43-K43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>15</v>
       </c>
@@ -1613,35 +1647,36 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8">
+      <c r="J44" s="8"/>
+      <c r="K44" s="8">
         <v>0.16639999999999999</v>
       </c>
-      <c r="K44" s="8">
+      <c r="L44" s="8">
         <v>0.93489999999999995</v>
       </c>
-      <c r="L44" s="8">
+      <c r="M44" s="8">
         <v>0.27960000000000002</v>
       </c>
-      <c r="M44" s="8">
+      <c r="N44" s="8">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N44" s="8">
+      <c r="O44" s="8">
         <v>26</v>
       </c>
-      <c r="T44">
-        <f>L44-J44</f>
+      <c r="U44">
+        <f>M44-K44</f>
         <v>0.11320000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T45">
-        <f>L45-J45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U45">
+        <f>M45-K45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -1651,15 +1686,15 @@
       <c r="C46">
         <v>32</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1E-3</v>
       </c>
-      <c r="T46">
-        <f>L46-J46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U46">
+        <f>M46-K46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1675,15 +1710,15 @@
       <c r="G47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.2</v>
       </c>
-      <c r="T47">
-        <f>L47-J47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U47">
+        <f>M47-K47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1699,15 +1734,15 @@
       <c r="G48" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.3</v>
       </c>
-      <c r="T48">
-        <f>L48-J48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48">
+        <f>M48-K48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1723,15 +1758,15 @@
       <c r="G49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.3</v>
       </c>
-      <c r="T49">
-        <f>L49-J49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49">
+        <f>M49-K49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -1747,30 +1782,30 @@
       <c r="G50" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.4</v>
       </c>
-      <c r="T50">
-        <f>L50-J50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50">
+        <f>M50-K50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
       <c r="D51">
         <v>128</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.5</v>
       </c>
-      <c r="T51">
-        <f>L51-J51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U51">
+        <f>M51-K51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>15</v>
       </c>
@@ -1780,35 +1815,36 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="8">
+      <c r="J52" s="8"/>
+      <c r="K52" s="8">
         <v>0.1348</v>
       </c>
-      <c r="K52" s="8">
+      <c r="L52" s="8">
         <v>0.94699999999999995</v>
       </c>
-      <c r="L52" s="8">
+      <c r="M52" s="8">
         <v>0.45200000000000001</v>
       </c>
-      <c r="M52" s="8">
+      <c r="N52" s="8">
         <v>0.84289999999999998</v>
       </c>
-      <c r="N52" s="8">
+      <c r="O52" s="8">
         <v>28</v>
       </c>
-      <c r="T52">
-        <f>L52-J52</f>
+      <c r="U52">
+        <f>M52-K52</f>
         <v>0.31720000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T53">
-        <f>L53-J53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U53">
+        <f>M53-K53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,15 +1854,15 @@
       <c r="C54">
         <v>32</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>1E-3</v>
       </c>
-      <c r="T54">
-        <f>L54-J54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U54">
+        <f>M54-K54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1842,15 +1878,15 @@
       <c r="G55" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.2</v>
       </c>
-      <c r="T55">
-        <f>L55-J55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U55">
+        <f>M55-K55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1866,15 +1902,15 @@
       <c r="G56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>0.3</v>
       </c>
-      <c r="T56">
-        <f>L56-J56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U56">
+        <f>M56-K56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -1890,15 +1926,15 @@
       <c r="G57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>0.3</v>
       </c>
-      <c r="T57">
-        <f>L57-J57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U57">
+        <f>M57-K57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -1914,30 +1950,30 @@
       <c r="G58" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.4</v>
       </c>
-      <c r="T58">
-        <f>L58-J58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U58">
+        <f>M58-K58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
       <c r="D59">
         <v>128</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.5</v>
       </c>
-      <c r="T59">
-        <f>L59-J59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U59">
+        <f>M59-K59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>15</v>
       </c>
@@ -1947,35 +1983,36 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="8"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="8">
+      <c r="J60" s="8"/>
+      <c r="K60" s="8">
         <v>0.17879999999999999</v>
       </c>
-      <c r="K60" s="8">
+      <c r="L60" s="8">
         <v>0.92479999999999996</v>
       </c>
-      <c r="L60" s="8">
+      <c r="M60" s="8">
         <v>0.37930000000000003</v>
       </c>
-      <c r="M60" s="8">
+      <c r="N60" s="8">
         <v>0.85299999999999998</v>
       </c>
-      <c r="N60" s="8">
+      <c r="O60" s="8">
         <v>22</v>
       </c>
-      <c r="T60">
-        <f>L60-J60</f>
+      <c r="U60">
+        <f>M60-K60</f>
         <v>0.20050000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T61">
-        <f>L61-J61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U61">
+        <f>M61-K61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -1985,15 +2022,15 @@
       <c r="C62">
         <v>32</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1E-3</v>
       </c>
-      <c r="T62">
-        <f>L62-J62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62">
+        <f>M62-K62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2009,15 +2046,15 @@
       <c r="G63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>0.2</v>
       </c>
-      <c r="T63">
-        <f>L63-J63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U63">
+        <f>M63-K63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -2033,15 +2070,15 @@
       <c r="G64" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>0.3</v>
       </c>
-      <c r="T64">
-        <f>L64-J64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U64">
+        <f>M64-K64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -2057,15 +2094,15 @@
       <c r="G65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>0.3</v>
       </c>
-      <c r="T65">
-        <f>L65-J65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U65">
+        <f>M65-K65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2081,30 +2118,30 @@
       <c r="G66" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.4</v>
       </c>
-      <c r="T66">
-        <f>L66-J66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U66">
+        <f>M66-K66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
       <c r="D67">
         <v>128</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.5</v>
       </c>
-      <c r="T67">
-        <f>L67-J67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U67">
+        <f>M67-K67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>15</v>
       </c>
@@ -2114,35 +2151,36 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="8"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="8">
+      <c r="J68" s="8"/>
+      <c r="K68" s="8">
         <v>0.1018</v>
       </c>
-      <c r="K68" s="8">
+      <c r="L68" s="8">
         <v>0.95899999999999996</v>
       </c>
-      <c r="L68" s="8">
+      <c r="M68" s="8">
         <v>0.32129999999999997</v>
       </c>
-      <c r="M68" s="8">
+      <c r="N68" s="8">
         <v>0.88600000000000001</v>
       </c>
-      <c r="N68" s="8">
+      <c r="O68" s="8">
         <v>26</v>
       </c>
-      <c r="T68">
-        <f>L68-J68</f>
+      <c r="U68">
+        <f>M68-K68</f>
         <v>0.21949999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T69">
-        <f>L69-J69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U69">
+        <f>M69-K69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
@@ -2152,15 +2190,15 @@
       <c r="C70">
         <v>32</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>1E-3</v>
       </c>
-      <c r="T70">
-        <f>L70-J70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U70">
+        <f>M70-K70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2176,15 +2214,15 @@
       <c r="G71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>0.2</v>
       </c>
-      <c r="T71">
-        <f>L71-J71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U71">
+        <f>M71-K71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2200,15 +2238,15 @@
       <c r="G72" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.3</v>
       </c>
-      <c r="T72">
-        <f>L72-J72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U72">
+        <f>M72-K72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -2224,15 +2262,15 @@
       <c r="G73" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.4</v>
       </c>
-      <c r="T73">
-        <f>L73-J73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U73">
+        <f>M73-K73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -2248,30 +2286,30 @@
       <c r="G74" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>0.4</v>
       </c>
-      <c r="T74">
-        <f>L74-J74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U74">
+        <f>M74-K74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
       <c r="D75">
         <v>128</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>0.5</v>
       </c>
-      <c r="T75">
-        <f>L75-J75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U75">
+        <f>M75-K75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2281,35 +2319,36 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
-      <c r="H76" s="8"/>
+      <c r="H76" s="18"/>
       <c r="I76" s="8"/>
-      <c r="J76" s="8">
+      <c r="J76" s="8"/>
+      <c r="K76" s="8">
         <v>0.12939999999999999</v>
       </c>
-      <c r="K76" s="8">
+      <c r="L76" s="8">
         <v>0.95099999999999996</v>
       </c>
-      <c r="L76" s="8">
+      <c r="M76" s="8">
         <v>0.29609999999999997</v>
       </c>
-      <c r="M76" s="8">
+      <c r="N76" s="8">
         <v>0.88339999999999996</v>
       </c>
-      <c r="N76" s="8">
+      <c r="O76" s="8">
         <v>26</v>
       </c>
-      <c r="T76">
-        <f>L76-J76</f>
+      <c r="U76">
+        <f>M76-K76</f>
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T77">
-        <f>L77-J77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U77">
+        <f>M77-K77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>36</v>
       </c>
@@ -2319,15 +2358,15 @@
       <c r="C78">
         <v>32</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>1E-3</v>
       </c>
-      <c r="T78">
-        <f>L78-J78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U78">
+        <f>M78-K78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2343,15 +2382,15 @@
       <c r="G79" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.2</v>
       </c>
-      <c r="T79">
-        <f>L79-J79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U79">
+        <f>M79-K79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -2367,15 +2406,15 @@
       <c r="G80" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>0.3</v>
       </c>
-      <c r="T80">
-        <f>L80-J80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U80">
+        <f>M80-K80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -2391,30 +2430,30 @@
       <c r="G81" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>0.4</v>
       </c>
-      <c r="T81">
-        <f>L81-J81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U81">
+        <f>M81-K81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="D82">
         <v>128</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>0.5</v>
       </c>
-      <c r="T82">
-        <f>L82-J82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U82">
+        <f>M82-K82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>15</v>
       </c>
@@ -2424,35 +2463,36 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="18"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="8">
+      <c r="J83" s="8"/>
+      <c r="K83" s="8">
         <v>0.18429999999999999</v>
       </c>
-      <c r="K83" s="8">
+      <c r="L83" s="8">
         <v>0.93030000000000002</v>
       </c>
-      <c r="L83" s="8">
+      <c r="M83" s="8">
         <v>0.31909999999999999</v>
       </c>
-      <c r="M83" s="8">
+      <c r="N83" s="8">
         <v>0.87749999999999995</v>
       </c>
-      <c r="N83" s="8">
-        <v>17</v>
-      </c>
-      <c r="T83">
-        <f>L83-J83</f>
+      <c r="O83" s="8">
+        <v>17</v>
+      </c>
+      <c r="U83">
+        <f>M83-K83</f>
         <v>0.1348</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T84">
-        <f>L84-J84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U84">
+        <f>M84-K84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
@@ -2462,15 +2502,15 @@
       <c r="C85">
         <v>32</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1E-3</v>
       </c>
-      <c r="T85">
-        <f>L85-J85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U85">
+        <f>M85-K85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2486,15 +2526,15 @@
       <c r="G86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0.2</v>
       </c>
-      <c r="T86">
-        <f>L86-J86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U86">
+        <f>M86-K86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -2510,15 +2550,15 @@
       <c r="G87" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0.3</v>
       </c>
-      <c r="T87">
-        <f>L87-J87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U87">
+        <f>M87-K87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -2534,30 +2574,30 @@
       <c r="G88" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>0.4</v>
       </c>
-      <c r="T88">
-        <f>L88-J88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U88">
+        <f>M88-K88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
       <c r="D89">
         <v>512</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>0.5</v>
       </c>
-      <c r="T89">
-        <f>L89-J89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U89">
+        <f>M89-K89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>15</v>
       </c>
@@ -2567,35 +2607,36 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="8"/>
+      <c r="H90" s="18"/>
       <c r="I90" s="8"/>
-      <c r="J90" s="8">
+      <c r="J90" s="8"/>
+      <c r="K90" s="8">
         <v>0.20030000000000001</v>
       </c>
-      <c r="K90" s="8">
+      <c r="L90" s="8">
         <v>0.91759999999999997</v>
       </c>
-      <c r="L90" s="8">
+      <c r="M90" s="8">
         <v>0.28620000000000001</v>
       </c>
-      <c r="M90" s="8">
+      <c r="N90" s="8">
         <v>0.88770000000000004</v>
       </c>
-      <c r="N90" s="8">
+      <c r="O90" s="8">
         <v>15</v>
       </c>
-      <c r="T90">
-        <f>L90-J90</f>
+      <c r="U90">
+        <f>M90-K90</f>
         <v>8.5900000000000004E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T91">
-        <f>L91-J91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U91">
+        <f>M91-K91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>38</v>
       </c>
@@ -2605,15 +2646,15 @@
       <c r="C92">
         <v>64</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>1E-3</v>
       </c>
-      <c r="T92">
-        <f>L92-J92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U92">
+        <f>M92-K92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2629,15 +2670,15 @@
       <c r="G93" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0.2</v>
       </c>
-      <c r="T93">
-        <f>L93-J93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U93">
+        <f>M93-K93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -2653,15 +2694,15 @@
       <c r="G94" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>0.3</v>
       </c>
-      <c r="T94">
-        <f>L94-J94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U94">
+        <f>M94-K94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -2677,30 +2718,30 @@
       <c r="G95" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>0.5</v>
       </c>
-      <c r="T95">
-        <f>L95-J95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U95">
+        <f>M95-K95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>14</v>
       </c>
       <c r="D96">
         <v>128</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.5</v>
       </c>
-      <c r="T96">
-        <f>L96-J96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U96">
+        <f>M96-K96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>15</v>
       </c>
@@ -2710,35 +2751,36 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
-      <c r="H97" s="8"/>
+      <c r="H97" s="18"/>
       <c r="I97" s="8"/>
-      <c r="J97" s="8">
+      <c r="J97" s="8"/>
+      <c r="K97" s="8">
         <v>0.26700000000000002</v>
       </c>
-      <c r="K97" s="8">
+      <c r="L97" s="8">
         <v>0.88700000000000001</v>
       </c>
-      <c r="L97" s="8">
+      <c r="M97" s="8">
         <v>0.28089999999999998</v>
       </c>
-      <c r="M97" s="8">
+      <c r="N97" s="8">
         <v>0.87670000000000003</v>
       </c>
-      <c r="N97" s="8">
+      <c r="O97" s="8">
         <v>15</v>
       </c>
-      <c r="T97">
-        <f>L97-J97</f>
+      <c r="U97">
+        <f>M97-K97</f>
         <v>1.3899999999999968E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T98">
-        <f>L98-J98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U98">
+        <f>M98-K98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
@@ -2748,15 +2790,15 @@
       <c r="C99">
         <v>16</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>1E-3</v>
       </c>
-      <c r="T99">
-        <f>L99-J99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U99">
+        <f>M99-K99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2772,15 +2814,15 @@
       <c r="G100" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>0.2</v>
       </c>
-      <c r="T100">
-        <f>L100-J100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U100">
+        <f>M100-K100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -2796,15 +2838,15 @@
       <c r="G101" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>0.3</v>
       </c>
-      <c r="T101">
-        <f>L101-J101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U101">
+        <f>M101-K101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -2820,30 +2862,30 @@
       <c r="G102" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>0.5</v>
       </c>
-      <c r="T102">
-        <f>L102-J102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U102">
+        <f>M102-K102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>14</v>
       </c>
       <c r="D103">
         <v>128</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>0.5</v>
       </c>
-      <c r="T103">
-        <f>L103-J103</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U103">
+        <f>M103-K103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>15</v>
       </c>
@@ -2853,35 +2895,36 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
-      <c r="H104" s="8"/>
+      <c r="H104" s="18"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="8">
+      <c r="J104" s="8"/>
+      <c r="K104" s="8">
         <v>0.2225</v>
       </c>
-      <c r="K104" s="8">
+      <c r="L104" s="8">
         <v>0.90720000000000001</v>
       </c>
-      <c r="L104" s="8">
+      <c r="M104" s="8">
         <v>0.30570000000000003</v>
       </c>
-      <c r="M104" s="8">
+      <c r="N104" s="8">
         <v>0.86990000000000001</v>
       </c>
-      <c r="N104" s="8">
+      <c r="O104" s="8">
         <v>15</v>
       </c>
-      <c r="T104">
-        <f>L104-J104</f>
+      <c r="U104">
+        <f>M104-K104</f>
         <v>8.3200000000000024E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T105">
-        <f>L105-J105</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U105">
+        <f>M105-K105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
@@ -2891,15 +2934,15 @@
       <c r="C106">
         <v>16</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>1E-3</v>
       </c>
-      <c r="T106">
-        <f>L106-J106</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U106">
+        <f>M106-K106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2915,15 +2958,15 @@
       <c r="G107" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>0.2</v>
       </c>
-      <c r="T107">
-        <f>L107-J107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U107">
+        <f>M107-K107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -2939,15 +2982,15 @@
       <c r="G108" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>0.2</v>
       </c>
-      <c r="T108">
-        <f>L108-J108</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U108">
+        <f>M108-K108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -2963,30 +3006,30 @@
       <c r="G109" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>0.3</v>
       </c>
-      <c r="T109">
-        <f>L109-J109</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U109">
+        <f>M109-K109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
       <c r="D110">
         <v>256</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>0.5</v>
       </c>
-      <c r="T110">
-        <f>L110-J110</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U110">
+        <f>M110-K110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>15</v>
       </c>
@@ -2996,35 +3039,36 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="8"/>
+      <c r="H111" s="18"/>
       <c r="I111" s="8"/>
-      <c r="J111" s="8">
+      <c r="J111" s="8"/>
+      <c r="K111" s="8">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="K111" s="8">
+      <c r="L111" s="8">
         <v>0.96919999999999995</v>
       </c>
-      <c r="L111" s="8">
+      <c r="M111" s="8">
         <v>0.3538</v>
       </c>
-      <c r="M111" s="8">
+      <c r="N111" s="8">
         <v>0.86819999999999997</v>
       </c>
-      <c r="N111" s="8">
+      <c r="O111" s="8">
         <v>15</v>
       </c>
-      <c r="T111">
-        <f>L111-J111</f>
+      <c r="U111">
+        <f>M111-K111</f>
         <v>0.2636</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T112">
-        <f>L112-J112</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U112">
+        <f>M112-K112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
@@ -3034,15 +3078,15 @@
       <c r="C113">
         <v>32</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>1E-3</v>
       </c>
-      <c r="T113">
-        <f>L113-J113</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U113">
+        <f>M113-K113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -3058,15 +3102,15 @@
       <c r="G114" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>0.2</v>
       </c>
-      <c r="T114">
-        <f>L114-J114</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U114">
+        <f>M114-K114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -3082,15 +3126,15 @@
       <c r="G115" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>0.3</v>
       </c>
-      <c r="T115">
-        <f>L115-J115</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U115">
+        <f>M115-K115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3106,30 +3150,30 @@
       <c r="G116" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>0.5</v>
       </c>
-      <c r="T116">
-        <f>L116-J116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U116">
+        <f>M116-K116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
       <c r="D117">
         <v>256</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>0.5</v>
       </c>
-      <c r="T117">
-        <f>L117-J117</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U117">
+        <f>M117-K117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>15</v>
       </c>
@@ -3139,35 +3183,36 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
-      <c r="H118" s="8"/>
+      <c r="H118" s="18"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="8">
+      <c r="J118" s="8"/>
+      <c r="K118" s="8">
         <v>0.68989999999999996</v>
       </c>
-      <c r="K118" s="8">
+      <c r="L118" s="8">
         <v>0.54069999999999996</v>
       </c>
-      <c r="L118" s="8">
+      <c r="M118" s="8">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="M118" s="8">
+      <c r="N118" s="8">
         <v>0.54049999999999998</v>
       </c>
-      <c r="N118" s="8">
+      <c r="O118" s="8">
         <v>7</v>
       </c>
-      <c r="T118">
-        <f>L118-J118</f>
+      <c r="U118">
+        <f>M118-K118</f>
         <v>-0.6</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T119">
-        <f>L119-J119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U119">
+        <f>M119-K119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
@@ -3177,15 +3222,15 @@
       <c r="C120">
         <v>32</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>1E-3</v>
       </c>
-      <c r="T120">
-        <f>L120-J120</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U120">
+        <f>M120-K120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -3201,15 +3246,15 @@
       <c r="G121" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>0.2</v>
       </c>
-      <c r="T121">
-        <f>L121-J121</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U121">
+        <f>M121-K121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3225,15 +3270,15 @@
       <c r="G122" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>0.3</v>
       </c>
-      <c r="T122">
-        <f>L122-J122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U122">
+        <f>M122-K122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -3249,30 +3294,30 @@
       <c r="G123" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>0.5</v>
       </c>
-      <c r="T123">
-        <f>L123-J123</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U123">
+        <f>M123-K123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>14</v>
       </c>
       <c r="D124">
         <v>128</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>0.5</v>
       </c>
-      <c r="T124">
-        <f>L124-J124</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U124">
+        <f>M124-K124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>15</v>
       </c>
@@ -3282,44 +3327,45 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
-      <c r="H125" s="8"/>
+      <c r="H125" s="18"/>
       <c r="I125" s="8"/>
-      <c r="J125" s="8">
+      <c r="J125" s="8"/>
+      <c r="K125" s="8">
         <v>0.24010000000000001</v>
       </c>
-      <c r="K125" s="8">
+      <c r="L125" s="8">
         <v>0.90110000000000001</v>
       </c>
-      <c r="L125" s="8">
+      <c r="M125" s="8">
         <v>0.28539999999999999</v>
       </c>
-      <c r="M125" s="8">
+      <c r="N125" s="8">
         <v>0.89019999999999999</v>
       </c>
-      <c r="N125" s="8">
+      <c r="O125" s="8">
         <v>20</v>
       </c>
-      <c r="T125">
-        <f>L125-J125</f>
+      <c r="U125">
+        <f>M125-K125</f>
         <v>4.5299999999999979E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T126">
-        <f>L126-J126</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U126">
+        <f>M126-K126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T127">
-        <f>L127-J127</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U127">
+        <f>M127-K127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>49</v>
       </c>
@@ -3333,21 +3379,22 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13">
+      <c r="H128" s="19"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J128" s="13"/>
       <c r="K128" s="13"/>
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
-      <c r="T128">
-        <f>L128-J128</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O128" s="13"/>
+      <c r="U128">
+        <f>M128-K128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -3363,15 +3410,15 @@
       <c r="G129" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>0.2</v>
       </c>
-      <c r="T129">
-        <f>L129-J129</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U129">
+        <f>M129-K129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -3387,15 +3434,15 @@
       <c r="G130" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>0.3</v>
       </c>
-      <c r="T130">
-        <f>L130-J130</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U130">
+        <f>M130-K130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -3411,30 +3458,30 @@
       <c r="G131" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>0.5</v>
       </c>
-      <c r="T131">
-        <f>L131-J131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U131">
+        <f>M131-K131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
       <c r="D132">
         <v>128</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>0.5</v>
       </c>
-      <c r="T132">
-        <f>L132-J132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U132">
+        <f>M132-K132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>15</v>
       </c>
@@ -3444,35 +3491,36 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
-      <c r="H133" s="8"/>
+      <c r="H133" s="18"/>
       <c r="I133" s="8"/>
-      <c r="J133" s="8">
+      <c r="J133" s="8"/>
+      <c r="K133" s="8">
         <v>0.26690000000000003</v>
       </c>
-      <c r="K133" s="8">
+      <c r="L133" s="8">
         <v>0.88739999999999997</v>
       </c>
-      <c r="L133" s="8">
+      <c r="M133" s="8">
         <v>0.28570000000000001</v>
       </c>
-      <c r="M133" s="8">
+      <c r="N133" s="8">
         <v>0.88009999999999999</v>
       </c>
-      <c r="N133" s="8">
+      <c r="O133" s="8">
         <v>20</v>
       </c>
-      <c r="T133">
-        <f>L133-J133</f>
+      <c r="U133">
+        <f>M133-K133</f>
         <v>1.8799999999999983E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T134">
-        <f>L134-J134</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U134">
+        <f>M134-K134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>50</v>
       </c>
@@ -3482,15 +3530,15 @@
       <c r="C135">
         <v>32</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>1E-4</v>
       </c>
-      <c r="T135">
-        <f>L135-J135</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U135">
+        <f>M135-K135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -3506,15 +3554,15 @@
       <c r="G136" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>0.2</v>
       </c>
-      <c r="T136">
-        <f>L136-J136</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U136">
+        <f>M136-K136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -3530,15 +3578,15 @@
       <c r="G137" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>0.3</v>
       </c>
-      <c r="T137">
-        <f>L137-J137</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U137">
+        <f>M137-K137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -3554,30 +3602,30 @@
       <c r="G138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>0.5</v>
       </c>
-      <c r="T138">
-        <f>L138-J138</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U138">
+        <f>M138-K138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>14</v>
       </c>
       <c r="D139">
         <v>128</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>0.5</v>
       </c>
-      <c r="T139">
-        <f>L139-J139</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U139">
+        <f>M139-K139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>15</v>
       </c>
@@ -3587,35 +3635,36 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="8"/>
+      <c r="H140" s="18"/>
       <c r="I140" s="8"/>
-      <c r="J140" s="8">
+      <c r="J140" s="8"/>
+      <c r="K140" s="8">
         <v>0.41249999999999998</v>
       </c>
-      <c r="K140" s="8">
+      <c r="L140" s="8">
         <v>0.81769999999999998</v>
       </c>
-      <c r="L140" s="8">
+      <c r="M140" s="8">
         <v>0.44890000000000002</v>
       </c>
-      <c r="M140" s="8">
+      <c r="N140" s="8">
         <v>0.79810000000000003</v>
       </c>
-      <c r="N140" s="8">
+      <c r="O140" s="8">
         <v>20</v>
       </c>
-      <c r="T140">
-        <f>L140-J140</f>
+      <c r="U140">
+        <f>M140-K140</f>
         <v>3.6400000000000043E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T141">
-        <f>L141-J141</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U141">
+        <f>M141-K141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>51</v>
       </c>
@@ -3625,15 +3674,15 @@
       <c r="C142">
         <v>32</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="T142">
-        <f>L142-J142</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U142">
+        <f>M142-K142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -3649,15 +3698,15 @@
       <c r="G143" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>0.2</v>
       </c>
-      <c r="T143">
-        <f>L143-J143</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U143">
+        <f>M143-K143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3673,15 +3722,15 @@
       <c r="G144" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>0.3</v>
       </c>
-      <c r="T144">
-        <f>L144-J144</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U144">
+        <f>M144-K144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>22</v>
       </c>
@@ -3697,30 +3746,30 @@
       <c r="G145" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>0.5</v>
       </c>
-      <c r="T145">
-        <f>L145-J145</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U145">
+        <f>M145-K145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>14</v>
       </c>
       <c r="D146">
         <v>128</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>0.5</v>
       </c>
-      <c r="T146">
-        <f>L146-J146</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U146">
+        <f>M146-K146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>15</v>
       </c>
@@ -3730,29 +3779,30 @@
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
-      <c r="H147" s="8"/>
+      <c r="H147" s="18"/>
       <c r="I147" s="8"/>
-      <c r="J147" s="8">
+      <c r="J147" s="8"/>
+      <c r="K147" s="8">
         <v>0.30859999999999999</v>
       </c>
-      <c r="K147" s="8">
+      <c r="L147" s="8">
         <v>0.86729999999999996</v>
       </c>
-      <c r="L147" s="8">
+      <c r="M147" s="8">
         <v>0.36990000000000001</v>
       </c>
-      <c r="M147" s="8">
+      <c r="N147" s="8">
         <v>0.83189999999999997</v>
       </c>
-      <c r="N147" s="8">
+      <c r="O147" s="8">
         <v>15</v>
       </c>
-      <c r="T147">
-        <f>L147-J147</f>
+      <c r="U147">
+        <f>M147-K147</f>
         <v>6.1300000000000021E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>51</v>
       </c>
@@ -3762,29 +3812,29 @@
       <c r="C149">
         <v>32</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="T149">
-        <f>L149-J149</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U149">
+        <f>M149-K149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O150">
-        <v>0.2</v>
-      </c>
       <c r="P150">
         <v>0.2</v>
       </c>
-      <c r="Q150" t="s">
+      <c r="Q150">
+        <v>0.2</v>
+      </c>
+      <c r="R150" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -3800,15 +3850,15 @@
       <c r="G151" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>0.2</v>
       </c>
-      <c r="T151">
-        <f>L151-J151</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U151">
+        <f>M151-K151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -3824,15 +3874,15 @@
       <c r="G152" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>0.3</v>
       </c>
-      <c r="T152">
-        <f>L152-J152</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U152">
+        <f>M152-K152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -3848,30 +3898,30 @@
       <c r="G153" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>0.5</v>
       </c>
-      <c r="T153">
-        <f>L153-J153</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U153">
+        <f>M153-K153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>14</v>
       </c>
       <c r="D154">
         <v>128</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>0.5</v>
       </c>
-      <c r="T154">
-        <f>L154-J154</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U154">
+        <f>M154-K154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>15</v>
       </c>
@@ -3881,29 +3931,30 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
-      <c r="H155" s="8"/>
+      <c r="H155" s="18"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="8">
+      <c r="J155" s="8"/>
+      <c r="K155" s="8">
         <v>0.53280000000000005</v>
       </c>
-      <c r="K155" s="8">
+      <c r="L155" s="8">
         <v>0.74350000000000005</v>
       </c>
-      <c r="L155" s="8">
+      <c r="M155" s="8">
         <v>1.079</v>
       </c>
-      <c r="M155" s="8">
+      <c r="N155" s="8">
         <v>0.54810000000000003</v>
       </c>
-      <c r="N155" s="8">
+      <c r="O155" s="8">
         <v>15</v>
       </c>
-      <c r="T155">
-        <f>L155-J155</f>
+      <c r="U155">
+        <f>M155-K155</f>
         <v>0.54619999999999991</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>59</v>
       </c>
@@ -3913,26 +3964,26 @@
       <c r="C157">
         <v>32</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="T157">
-        <f>L157-J157</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U157">
+        <f>M157-K157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P158">
+      <c r="Q158">
         <v>0.2</v>
       </c>
-      <c r="R158" t="s">
+      <c r="S158" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -3948,15 +3999,15 @@
       <c r="G159" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>0.2</v>
       </c>
-      <c r="T159">
-        <f>L159-J159</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U159">
+        <f>M159-K159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -3972,15 +4023,15 @@
       <c r="G160" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>0.3</v>
       </c>
-      <c r="T160">
-        <f>L160-J160</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U160">
+        <f>M160-K160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -3996,30 +4047,30 @@
       <c r="G161" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>0.5</v>
       </c>
-      <c r="T161">
-        <f>L161-J161</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U161">
+        <f>M161-K161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>14</v>
       </c>
       <c r="D162">
         <v>128</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>0.5</v>
       </c>
-      <c r="T162">
-        <f>L162-J162</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U162">
+        <f>M162-K162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>15</v>
       </c>
@@ -4029,29 +4080,30 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
-      <c r="H163" s="8"/>
+      <c r="H163" s="18"/>
       <c r="I163" s="8"/>
-      <c r="J163" s="8">
+      <c r="J163" s="8"/>
+      <c r="K163" s="8">
         <v>0.23119999999999999</v>
       </c>
-      <c r="K163" s="8">
+      <c r="L163" s="8">
         <v>0.90559999999999996</v>
       </c>
-      <c r="L163" s="8">
+      <c r="M163" s="8">
         <v>0.27960000000000002</v>
       </c>
-      <c r="M163" s="8">
+      <c r="N163" s="8">
         <v>0.87250000000000005</v>
       </c>
-      <c r="N163" s="8">
+      <c r="O163" s="8">
         <v>30</v>
       </c>
-      <c r="T163">
-        <f>L163-J163</f>
+      <c r="U163">
+        <f>M163-K163</f>
         <v>4.8400000000000026E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,32 +4113,32 @@
       <c r="C165">
         <v>32</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="T165">
-        <f>L165-J165</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U165">
+        <f>M165-K165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O166">
-        <v>0.2</v>
-      </c>
       <c r="P166">
         <v>0.2</v>
       </c>
-      <c r="Q166" t="s">
+      <c r="Q166">
+        <v>0.2</v>
+      </c>
+      <c r="R166" t="s">
         <v>58</v>
       </c>
-      <c r="R166" t="s">
+      <c r="S166" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>16</v>
       </c>
@@ -4102,15 +4154,15 @@
       <c r="G167" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>0.2</v>
       </c>
-      <c r="T167">
-        <f>L167-J167</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U167">
+        <f>M167-K167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>18</v>
       </c>
@@ -4126,15 +4178,15 @@
       <c r="G168" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>0.3</v>
       </c>
-      <c r="T168">
-        <f>L168-J168</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U168">
+        <f>M168-K168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4150,30 +4202,30 @@
       <c r="G169" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>0.5</v>
       </c>
-      <c r="T169">
-        <f>L169-J169</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U169">
+        <f>M169-K169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>14</v>
       </c>
       <c r="D170">
         <v>128</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>0.5</v>
       </c>
-      <c r="T170">
-        <f>L170-J170</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U170">
+        <f>M170-K170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>15</v>
       </c>
@@ -4183,29 +4235,30 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
-      <c r="H171" s="8"/>
+      <c r="H171" s="18"/>
       <c r="I171" s="8"/>
-      <c r="J171" s="8">
+      <c r="J171" s="8"/>
+      <c r="K171" s="8">
         <v>0.45490000000000003</v>
       </c>
-      <c r="K171" s="8">
+      <c r="L171" s="8">
         <v>0.79630000000000001</v>
       </c>
-      <c r="L171" s="8">
+      <c r="M171" s="8">
         <v>0.7742</v>
       </c>
-      <c r="M171" s="8">
+      <c r="N171" s="8">
         <v>0.64100000000000001</v>
       </c>
-      <c r="N171" s="8">
+      <c r="O171" s="8">
         <v>33</v>
       </c>
-      <c r="T171">
-        <f>L171-J171</f>
+      <c r="U171">
+        <f>M171-K171</f>
         <v>0.31929999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>63</v>
       </c>
@@ -4215,32 +4268,32 @@
       <c r="C173">
         <v>32</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="T173">
-        <f>L173-J173</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U173">
+        <f>M173-K173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O174">
+      <c r="P174">
         <v>0.5</v>
       </c>
-      <c r="P174">
+      <c r="Q174">
         <v>0.1</v>
       </c>
-      <c r="Q174" t="s">
-        <v>64</v>
-      </c>
       <c r="R174" t="s">
+        <v>64</v>
+      </c>
+      <c r="S174" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -4256,15 +4309,15 @@
       <c r="G175" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>0.2</v>
       </c>
-      <c r="T175">
-        <f>L175-J175</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U175">
+        <f>M175-K175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>18</v>
       </c>
@@ -4280,15 +4333,15 @@
       <c r="G176" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>0.3</v>
       </c>
-      <c r="T176">
-        <f>L176-J176</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U176">
+        <f>M176-K176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -4304,30 +4357,30 @@
       <c r="G177" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>0.5</v>
       </c>
-      <c r="T177">
-        <f>L177-J177</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U177">
+        <f>M177-K177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>14</v>
       </c>
       <c r="D178">
         <v>128</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>0.5</v>
       </c>
-      <c r="T178">
-        <f>L178-J178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U178">
+        <f>M178-K178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
         <v>15</v>
       </c>
@@ -4337,29 +4390,30 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
-      <c r="H179" s="8"/>
+      <c r="H179" s="18"/>
       <c r="I179" s="8"/>
-      <c r="J179" s="8">
+      <c r="J179" s="8"/>
+      <c r="K179" s="8">
         <v>0.51580000000000004</v>
       </c>
-      <c r="K179" s="8">
+      <c r="L179" s="8">
         <v>0.75619999999999998</v>
       </c>
-      <c r="L179" s="8">
+      <c r="M179" s="8">
         <v>0.70499999999999996</v>
       </c>
-      <c r="M179" s="8">
+      <c r="N179" s="8">
         <v>0.65029999999999999</v>
       </c>
-      <c r="N179" s="8">
+      <c r="O179" s="8">
         <v>30</v>
       </c>
-      <c r="T179">
-        <f>L179-J179</f>
+      <c r="U179">
+        <f>M179-K179</f>
         <v>0.18919999999999992</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>66</v>
       </c>
@@ -4369,32 +4423,32 @@
       <c r="C181">
         <v>32</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>1E-4</v>
       </c>
-      <c r="T181">
-        <f>L181-J181</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U181">
+        <f>M181-K181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O182">
+      <c r="P182">
         <v>0.5</v>
       </c>
-      <c r="P182">
+      <c r="Q182">
         <v>0.2</v>
       </c>
-      <c r="Q182" t="s">
-        <v>64</v>
-      </c>
       <c r="R182" t="s">
+        <v>64</v>
+      </c>
+      <c r="S182" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -4410,15 +4464,15 @@
       <c r="G183" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>0.2</v>
       </c>
-      <c r="T183">
-        <f>L183-J183</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U183">
+        <f>M183-K183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>18</v>
       </c>
@@ -4434,15 +4488,15 @@
       <c r="G184" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>0.3</v>
       </c>
-      <c r="T184">
-        <f>L184-J184</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U184">
+        <f>M184-K184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>22</v>
       </c>
@@ -4458,30 +4512,30 @@
       <c r="G185" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>0.5</v>
       </c>
-      <c r="T185">
-        <f>L185-J185</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U185">
+        <f>M185-K185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>14</v>
       </c>
       <c r="D186">
         <v>128</v>
       </c>
-      <c r="H186">
+      <c r="I186">
         <v>0.5</v>
       </c>
-      <c r="T186">
-        <f>L186-J186</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U186">
+        <f>M186-K186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>15</v>
       </c>
@@ -4491,29 +4545,30 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
-      <c r="H187" s="8"/>
+      <c r="H187" s="18"/>
       <c r="I187" s="8"/>
-      <c r="J187" s="8">
+      <c r="J187" s="8"/>
+      <c r="K187" s="8">
         <v>0.57530000000000003</v>
       </c>
-      <c r="K187" s="8">
+      <c r="L187" s="8">
         <v>0.70209999999999995</v>
       </c>
-      <c r="L187" s="8">
+      <c r="M187" s="8">
         <v>2.5042</v>
       </c>
-      <c r="M187" s="8">
+      <c r="N187" s="8">
         <v>0.46110000000000001</v>
       </c>
-      <c r="N187" s="8">
+      <c r="O187" s="8">
         <v>35</v>
       </c>
-      <c r="T187">
-        <f>L187-J187</f>
+      <c r="U187">
+        <f>M187-K187</f>
         <v>1.9289000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>67</v>
       </c>
@@ -4523,32 +4578,32 @@
       <c r="C189">
         <v>16</v>
       </c>
-      <c r="I189">
+      <c r="J189">
         <v>1E-4</v>
       </c>
-      <c r="T189">
-        <f>L189-J189</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U189">
+        <f>M189-K189</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O190">
-        <v>0.2</v>
-      </c>
       <c r="P190">
         <v>0.2</v>
       </c>
-      <c r="Q190" t="s">
+      <c r="Q190">
+        <v>0.2</v>
+      </c>
+      <c r="R190" t="s">
         <v>68</v>
       </c>
-      <c r="R190" t="s">
+      <c r="S190" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -4564,15 +4619,15 @@
       <c r="G191" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H191">
+      <c r="I191">
         <v>0.2</v>
       </c>
-      <c r="T191">
-        <f>L191-J191</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U191">
+        <f>M191-K191</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -4588,15 +4643,15 @@
       <c r="G192" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H192">
+      <c r="I192">
         <v>0.3</v>
       </c>
-      <c r="T192">
-        <f>L192-J192</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U192">
+        <f>M192-K192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -4612,30 +4667,30 @@
       <c r="G193" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H193">
+      <c r="I193">
         <v>0.5</v>
       </c>
-      <c r="T193">
-        <f>L193-J193</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U193">
+        <f>M193-K193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>14</v>
       </c>
       <c r="D194">
         <v>128</v>
       </c>
-      <c r="H194">
+      <c r="I194">
         <v>0.5</v>
       </c>
-      <c r="T194">
-        <f>L194-J194</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U194">
+        <f>M194-K194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>15</v>
       </c>
@@ -4645,38 +4700,39 @@
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
-      <c r="H195" s="8"/>
+      <c r="H195" s="18"/>
       <c r="I195" s="8"/>
-      <c r="J195" s="8">
+      <c r="J195" s="8"/>
+      <c r="K195" s="8">
         <v>0.40899999999999997</v>
       </c>
-      <c r="K195" s="8">
+      <c r="L195" s="8">
         <v>0.81510000000000005</v>
       </c>
-      <c r="L195" s="8">
+      <c r="M195" s="8">
         <v>0.74570000000000003</v>
       </c>
-      <c r="M195" s="8">
+      <c r="N195" s="8">
         <v>0.70440000000000003</v>
       </c>
-      <c r="N195" s="8">
+      <c r="O195" s="8">
         <v>40</v>
       </c>
-      <c r="T195">
-        <f>L195-J195</f>
+      <c r="U195">
+        <f>M195-K195</f>
         <v>0.33670000000000005</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T197">
-        <f>L197-J197</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U197">
+        <f>M197-K197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
         <v>70</v>
       </c>
@@ -4690,21 +4746,22 @@
       <c r="E198" s="14"/>
       <c r="F198" s="14"/>
       <c r="G198" s="14"/>
-      <c r="H198" s="13"/>
-      <c r="I198" s="13">
+      <c r="H198" s="19"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J198" s="13"/>
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13"/>
       <c r="N198" s="13"/>
-      <c r="T198">
-        <f>L198-J198</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O198" s="13"/>
+      <c r="U198">
+        <f>M198-K198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -4720,15 +4777,15 @@
       <c r="G199" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H199">
+      <c r="I199">
         <v>0.2</v>
       </c>
-      <c r="T199">
-        <f>L199-J199</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U199">
+        <f>M199-K199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -4744,15 +4801,15 @@
       <c r="G200" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H200">
+      <c r="I200">
         <v>0.3</v>
       </c>
-      <c r="T200">
-        <f>L200-J200</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U200">
+        <f>M200-K200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -4768,30 +4825,30 @@
       <c r="G201" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H201">
+      <c r="I201">
         <v>0.5</v>
       </c>
-      <c r="T201">
-        <f>L201-J201</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U201">
+        <f>M201-K201</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>14</v>
       </c>
       <c r="D202">
         <v>128</v>
       </c>
-      <c r="H202">
+      <c r="I202">
         <v>0.5</v>
       </c>
-      <c r="T202">
-        <f>L202-J202</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U202">
+        <f>M202-K202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
         <v>15</v>
       </c>
@@ -4801,21 +4858,314 @@
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
-      <c r="H203" s="8"/>
+      <c r="H203" s="18"/>
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
-      <c r="K203" s="8"/>
-      <c r="L203" s="8"/>
-      <c r="M203" s="8"/>
-      <c r="N203" s="8"/>
-      <c r="T203">
-        <f>L203-J203</f>
+      <c r="K203" s="8">
+        <v>0.1368</v>
+      </c>
+      <c r="L203" s="8">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="M203" s="8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="N203" s="8">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="O203" s="8">
+        <v>30</v>
+      </c>
+      <c r="U203">
+        <f>M203-K203</f>
+        <v>0.13020000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205">
+        <v>16</v>
+      </c>
+      <c r="J205">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="U205">
+        <f>M205-K205</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A206" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207">
+        <v>32</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I207">
+        <v>0.2</v>
+      </c>
+      <c r="U207">
+        <f>M207-K207</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208">
+        <v>64</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I208">
+        <v>0.3</v>
+      </c>
+      <c r="U208">
+        <f>M208-K208</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209">
+        <v>128</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I209">
+        <v>0.5</v>
+      </c>
+      <c r="U209">
+        <f>M209-K209</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210">
+        <v>256</v>
+      </c>
+      <c r="I210">
+        <v>0.5</v>
+      </c>
+      <c r="U210">
+        <f>M210-K210</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="9"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="18"/>
+      <c r="I211" s="8"/>
+      <c r="J211" s="8"/>
+      <c r="K211" s="8">
+        <v>0.1062</v>
+      </c>
+      <c r="L211" s="8">
+        <v>0.9577</v>
+      </c>
+      <c r="M211" s="8">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="N211" s="8">
+        <v>0.9012</v>
+      </c>
+      <c r="O211" s="8">
+        <v>23</v>
+      </c>
+      <c r="U211">
+        <f>M211-K211</f>
+        <v>0.1719</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213">
+        <v>16</v>
+      </c>
+      <c r="J213">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="U213">
+        <f>M213-K213</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A214" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215">
+        <v>32</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H215" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I215">
+        <v>0.2</v>
+      </c>
+      <c r="U215">
+        <f>M215-K215</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216">
+        <v>64</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H216" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I216">
+        <v>0.3</v>
+      </c>
+      <c r="U216">
+        <f>M216-K216</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217">
+        <v>128</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I217">
+        <v>0.5</v>
+      </c>
+      <c r="U217">
+        <f>M217-K217</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218">
+        <v>128</v>
+      </c>
+      <c r="I218">
+        <v>0.5</v>
+      </c>
+      <c r="U218">
+        <f>M218-K218</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="9"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="18"/>
+      <c r="I219" s="8"/>
+      <c r="J219" s="8"/>
+      <c r="K219" s="8"/>
+      <c r="L219" s="8"/>
+      <c r="M219" s="8"/>
+      <c r="N219" s="8"/>
+      <c r="O219" s="8"/>
+      <c r="U219">
+        <f>M219-K219</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="L1:M1048576">
+  <conditionalFormatting sqref="M1:N1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\ML NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BBD1D8-D2E0-4D04-B03C-717D29FF9DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB494D-82F2-4B6E-8B55-CAE362BF6234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8BA4A07E-F9F8-4D72-B6FD-9953B828296E}"/>
   </bookViews>
@@ -736,9 +736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EC09E-D4D5-4A70-B759-84F6AC5DED99}">
   <dimension ref="A1:U219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J216" sqref="J216"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5153,14 +5153,24 @@
       <c r="H219" s="18"/>
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="8"/>
-      <c r="N219" s="8"/>
-      <c r="O219" s="8"/>
+      <c r="K219" s="8">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="L219" s="8">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="M219" s="8">
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="N219" s="8">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="O219" s="8">
+        <v>18</v>
+      </c>
       <c r="U219">
         <f>M219-K219</f>
-        <v>0</v>
+        <v>0.15009999999999998</v>
       </c>
     </row>
   </sheetData>
